--- a/Jogos_da_Semana_FlashScore_2025-03-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-15.xlsx
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
         <v>2.2</v>
@@ -989,7 +989,7 @@
         <v>2.5</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1022,16 +1022,16 @@
         <v>3.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y4" t="n">
         <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>9.5</v>
@@ -1046,7 +1046,7 @@
         <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>9.5</v>
@@ -1067,7 +1067,7 @@
         <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
@@ -1282,10 +1282,10 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1556,13 +1556,13 @@
         <v>4.75</v>
       </c>
       <c r="I8" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J8" t="n">
         <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.91</v>
@@ -1592,10 +1592,10 @@
         <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W8" t="n">
         <v>1.7</v>
@@ -1634,7 +1634,7 @@
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
@@ -1646,7 +1646,7 @@
         <v>8.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
         <v>11</v>
@@ -1713,10 +1713,10 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -1977,16 +1977,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
         <v>2.1</v>
@@ -2031,7 +2031,7 @@
         <v>1.91</v>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z11" t="n">
         <v>8.5</v>
@@ -2040,7 +2040,7 @@
         <v>9</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>17</v>
@@ -2052,7 +2052,7 @@
         <v>8.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -2139,7 +2139,7 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
         <v>1.17</v>
@@ -2205,7 +2205,7 @@
         <v>251</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK12" t="n">
         <v>7</v>
@@ -2223,10 +2223,10 @@
         <v>23</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2263,13 +2263,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>2.88</v>
@@ -2284,7 +2284,7 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -2305,10 +2305,10 @@
         <v>1.57</v>
       </c>
       <c r="U13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W13" t="n">
         <v>1.5</v>
@@ -2362,16 +2362,16 @@
         <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
@@ -2423,7 +2423,7 @@
         <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2438,16 +2438,16 @@
         <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U14" t="n">
         <v>1.3</v>
@@ -2462,7 +2462,7 @@
         <v>2.38</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
         <v>15</v>
@@ -2492,7 +2492,7 @@
         <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="n">
         <v>12</v>
@@ -2504,7 +2504,7 @@
         <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN14" t="n">
         <v>19</v>
@@ -2513,10 +2513,10 @@
         <v>23</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
         <v>2.45</v>
@@ -2607,13 +2607,13 @@
         <v>1.95</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
         <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
         <v>34</v>
@@ -2631,7 +2631,7 @@
         <v>6</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>51</v>
@@ -2640,10 +2640,10 @@
         <v>251</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
         <v>10</v>
@@ -2844,7 +2844,7 @@
         <v>4.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
@@ -3496,7 +3496,7 @@
         <v>8.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM21" t="n">
         <v>9</v>
@@ -3713,10 +3713,10 @@
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
         <v>2.04</v>
@@ -3848,10 +3848,10 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.5</v>
@@ -3860,10 +3860,10 @@
         <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3935,10 +3935,10 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="25">
@@ -4132,10 +4132,10 @@
         <v>4.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -4144,10 +4144,10 @@
         <v>3.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S26" t="n">
         <v>3.75</v>
@@ -4276,19 +4276,19 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R27" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
         <v>4.33</v>
@@ -4509,16 +4509,16 @@
         <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="29">
@@ -4702,16 +4702,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K30" t="n">
         <v>1.91</v>
@@ -4720,10 +4720,10 @@
         <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O30" t="n">
         <v>1.53</v>
@@ -4759,7 +4759,7 @@
         <v>4.75</v>
       </c>
       <c r="Z30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA30" t="n">
         <v>9.5</v>
@@ -4780,7 +4780,7 @@
         <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH30" t="n">
         <v>101</v>
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H39" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
         <v>2.45</v>
@@ -6009,34 +6009,34 @@
         <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O39" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="R39" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S39" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="T39" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="U39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V39" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W39" t="n">
         <v>1.44</v>
@@ -6048,7 +6048,7 @@
         <v>13</v>
       </c>
       <c r="Z39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA39" t="n">
         <v>10</v>
@@ -6066,16 +6066,16 @@
         <v>19</v>
       </c>
       <c r="AF39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI39" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="n">
         <v>13</v>
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H41" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I41" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J41" t="n">
         <v>1.62</v>
       </c>
       <c r="K41" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="L41" t="n">
         <v>9</v>
@@ -6302,76 +6302,76 @@
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA41" t="n">
         <v>9</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V41" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AA41" t="n">
+      <c r="AB41" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE41" t="n">
         <v>9.25</v>
       </c>
-      <c r="AB41" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>9</v>
-      </c>
       <c r="AF41" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH41" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AJ41" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AK41" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL41" t="n">
         <v>37</v>
@@ -6380,10 +6380,10 @@
         <v>450</v>
       </c>
       <c r="AN41" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AO41" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6422,22 +6422,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H42" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="I42" t="n">
         <v>1.12</v>
       </c>
       <c r="J42" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="K42" t="n">
         <v>3.05</v>
       </c>
       <c r="L42" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -6447,7 +6447,7 @@
         <v>1.33</v>
       </c>
       <c r="R42" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="S42" t="n">
         <v>1.8</v>
@@ -6458,25 +6458,25 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="X42" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Y42" t="n">
         <v>50</v>
       </c>
       <c r="Z42" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AA42" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB42" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AC42" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AD42" t="n">
         <v>175</v>
@@ -6488,7 +6488,7 @@
         <v>17.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH42" t="n">
         <v>175</v>
@@ -6500,19 +6500,19 @@
         <v>10</v>
       </c>
       <c r="AK42" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AL42" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM42" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AN42" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AO42" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6551,22 +6551,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H43" t="n">
         <v>2.95</v>
       </c>
       <c r="I43" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="J43" t="n">
         <v>3.55</v>
       </c>
       <c r="K43" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="L43" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M43" t="n">
         <v>1.11</v>
@@ -6596,7 +6596,7 @@
         <v>1.57</v>
       </c>
       <c r="V43" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W43" t="n">
         <v>2.15</v>
@@ -6620,7 +6620,7 @@
         <v>32</v>
       </c>
       <c r="AD43" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE43" t="n">
         <v>6.1</v>
@@ -6692,13 +6692,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H44" t="n">
         <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J44" t="n">
         <v>3.2</v>
@@ -6707,7 +6707,7 @@
         <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M44" t="n">
         <v>1.05</v>
@@ -6722,10 +6722,10 @@
         <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R44" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S44" t="n">
         <v>3.25</v>
@@ -6734,19 +6734,19 @@
         <v>1.33</v>
       </c>
       <c r="U44" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W44" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X44" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z44" t="n">
         <v>13</v>
@@ -6761,16 +6761,16 @@
         <v>21</v>
       </c>
       <c r="AD44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF44" t="n">
         <v>6.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH44" t="n">
         <v>41</v>
@@ -6779,7 +6779,7 @@
         <v>151</v>
       </c>
       <c r="AJ44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK44" t="n">
         <v>13</v>
@@ -6794,7 +6794,7 @@
         <v>21</v>
       </c>
       <c r="AO44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -7144,7 +7144,7 @@
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O47" t="n">
         <v>1.22</v>
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
@@ -7417,10 +7417,10 @@
         <v>4.33</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L49" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M49" t="n">
         <v>1.08</v>
@@ -7435,10 +7435,10 @@
         <v>2.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R49" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S49" t="n">
         <v>4</v>
@@ -7486,7 +7486,7 @@
         <v>17</v>
       </c>
       <c r="AH49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI49" t="n">
         <v>351</v>
@@ -7498,10 +7498,10 @@
         <v>9</v>
       </c>
       <c r="AL49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN49" t="n">
         <v>19</v>
@@ -7564,10 +7564,10 @@
         <v>17</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N50" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O50" t="n">
         <v>1.14</v>
@@ -7582,10 +7582,10 @@
         <v>2.5</v>
       </c>
       <c r="S50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T50" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U50" t="n">
         <v>1.25</v>
@@ -7600,16 +7600,16 @@
         <v>1.4</v>
       </c>
       <c r="Y50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z50" t="n">
         <v>5.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB50" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AC50" t="n">
         <v>13</v>
@@ -7618,10 +7618,10 @@
         <v>41</v>
       </c>
       <c r="AE50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG50" t="n">
         <v>41</v>
@@ -7633,7 +7633,7 @@
         <v>101</v>
       </c>
       <c r="AJ50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK50" t="n">
         <v>81</v>
@@ -7651,10 +7651,10 @@
         <v>126</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
@@ -7691,28 +7691,28 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J51" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K51" t="n">
         <v>2.05</v>
       </c>
       <c r="L51" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O51" t="n">
         <v>1.36</v>
@@ -7739,10 +7739,10 @@
         <v>2.5</v>
       </c>
       <c r="W51" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X51" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y51" t="n">
         <v>6</v>
@@ -7757,7 +7757,7 @@
         <v>13</v>
       </c>
       <c r="AC51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD51" t="n">
         <v>34</v>
@@ -7857,7 +7857,7 @@
         <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O52" t="n">
         <v>1.4</v>
@@ -8006,7 +8006,7 @@
         <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O53" t="n">
         <v>1.36</v>
@@ -8134,22 +8134,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H54" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K54" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L54" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
@@ -8158,16 +8158,16 @@
         <v>11</v>
       </c>
       <c r="O54" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R54" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S54" t="n">
         <v>3.4</v>
@@ -8182,10 +8182,10 @@
         <v>2.75</v>
       </c>
       <c r="W54" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X54" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y54" t="n">
         <v>17</v>
@@ -8197,25 +8197,25 @@
         <v>23</v>
       </c>
       <c r="AB54" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AC54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE54" t="n">
         <v>9.5</v>
       </c>
       <c r="AF54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI54" t="n">
         <v>1250</v>
@@ -8230,7 +8230,7 @@
         <v>9</v>
       </c>
       <c r="AM54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN54" t="n">
         <v>13</v>
@@ -8307,10 +8307,10 @@
         <v>7</v>
       </c>
       <c r="O55" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P55" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q55" t="n">
         <v>2.5</v>
@@ -8394,10 +8394,10 @@
         <v>1.24</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="56">
@@ -8450,10 +8450,10 @@
         <v>6.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O56" t="n">
         <v>1.36</v>
@@ -8537,16 +8537,16 @@
         <v>51</v>
       </c>
       <c r="AP56" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="57">
@@ -8599,16 +8599,16 @@
         <v>3.75</v>
       </c>
       <c r="M57" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O57" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P57" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q57" t="n">
         <v>2.5</v>
@@ -8686,16 +8686,16 @@
         <v>41</v>
       </c>
       <c r="AP57" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.22</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="58">
@@ -8730,22 +8730,22 @@
         </is>
       </c>
       <c r="G58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H58" t="n">
         <v>3.1</v>
       </c>
-      <c r="H58" t="n">
-        <v>3</v>
-      </c>
       <c r="I58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K58" t="n">
         <v>1.95</v>
       </c>
       <c r="L58" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M58" t="n">
         <v>1.1</v>
@@ -8760,10 +8760,10 @@
         <v>2.63</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R58" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -8790,13 +8790,13 @@
         <v>15</v>
       </c>
       <c r="AA58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB58" t="n">
         <v>34</v>
       </c>
       <c r="AC58" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD58" t="n">
         <v>41</v>
@@ -8820,7 +8820,7 @@
         <v>6</v>
       </c>
       <c r="AK58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL58" t="n">
         <v>10</v>
@@ -8837,10 +8837,10 @@
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
       <c r="AR58" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="59">
@@ -8896,7 +8896,7 @@
         <v>1.03</v>
       </c>
       <c r="N59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O59" t="n">
         <v>1.18</v>
@@ -8980,10 +8980,10 @@
         <v>41</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
@@ -9020,55 +9020,55 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H60" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I60" t="n">
         <v>3.95</v>
       </c>
       <c r="J60" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K60" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="M60" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N60" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O60" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P60" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R60" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S60" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="T60" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="U60" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V60" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="W60" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="X60" t="n">
         <v>1.75</v>
@@ -9083,31 +9083,31 @@
         <v>9.25</v>
       </c>
       <c r="AB60" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD60" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE60" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AF60" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AG60" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI60" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ60" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK60" t="n">
         <v>22</v>
@@ -9119,10 +9119,10 @@
         <v>70</v>
       </c>
       <c r="AN60" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO60" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -9164,16 +9164,16 @@
         <v>2.92</v>
       </c>
       <c r="H61" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I61" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="J61" t="n">
         <v>3.5</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L61" t="n">
         <v>3.05</v>
@@ -9182,7 +9182,7 @@
         <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="O61" t="n">
         <v>1.33</v>
@@ -9206,7 +9206,7 @@
         <v>1.45</v>
       </c>
       <c r="V61" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W61" t="n">
         <v>1.72</v>
@@ -9227,13 +9227,13 @@
         <v>40</v>
       </c>
       <c r="AC61" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD61" t="n">
         <v>35</v>
       </c>
       <c r="AE61" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF61" t="n">
         <v>6.3</v>
@@ -9248,10 +9248,10 @@
         <v>500</v>
       </c>
       <c r="AJ61" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AK61" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL61" t="n">
         <v>9.75</v>
@@ -9263,7 +9263,7 @@
         <v>22</v>
       </c>
       <c r="AO61" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
@@ -9608,16 +9608,16 @@
         <v>9</v>
       </c>
       <c r="O64" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P64" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R64" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S64" t="n">
         <v>3.75</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H69" t="n">
         <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K69" t="n">
         <v>2</v>
@@ -10323,16 +10323,16 @@
         <v>2.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R69" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S69" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T69" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U69" t="n">
         <v>1.5</v>
@@ -10350,7 +10350,7 @@
         <v>6.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA69" t="n">
         <v>9.5</v>
@@ -10380,19 +10380,19 @@
         <v>351</v>
       </c>
       <c r="AJ69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL69" t="n">
         <v>13</v>
       </c>
       <c r="AM69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN69" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO69" t="n">
         <v>41</v>
@@ -10438,13 +10438,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>3.1</v>
       </c>
       <c r="I70" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J70" t="n">
         <v>3</v>
@@ -10453,7 +10453,7 @@
         <v>1.91</v>
       </c>
       <c r="L70" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M70" t="n">
         <v>1.1</v>
@@ -10486,13 +10486,13 @@
         <v>2.25</v>
       </c>
       <c r="W70" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X70" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y70" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z70" t="n">
         <v>9</v>
@@ -10501,7 +10501,7 @@
         <v>10</v>
       </c>
       <c r="AB70" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC70" t="n">
         <v>21</v>
@@ -10519,7 +10519,7 @@
         <v>19</v>
       </c>
       <c r="AH70" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI70" t="n">
         <v>501</v>
@@ -10528,7 +10528,7 @@
         <v>8</v>
       </c>
       <c r="AK70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL70" t="n">
         <v>13</v>
@@ -10540,7 +10540,7 @@
         <v>34</v>
       </c>
       <c r="AO70" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr"/>
@@ -10607,22 +10607,22 @@
         <v>11</v>
       </c>
       <c r="O71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T71" t="n">
         <v>1.33</v>
-      </c>
-      <c r="P71" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>2</v>
-      </c>
-      <c r="R71" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S71" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1.3</v>
       </c>
       <c r="U71" t="n">
         <v>1.4</v>
@@ -10754,10 +10754,10 @@
         <v>3.2</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R72" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S72" t="n">
         <v>4</v>
@@ -11030,16 +11030,16 @@
         <v>10</v>
       </c>
       <c r="O74" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P74" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R74" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S74" t="n">
         <v>3.4</v>
@@ -11147,13 +11147,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H75" t="n">
         <v>3.25</v>
       </c>
       <c r="I75" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J75" t="n">
         <v>3.5</v>
@@ -11204,7 +11204,7 @@
         <v>7.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA75" t="n">
         <v>11</v>
@@ -11439,7 +11439,7 @@
         <v>3.2</v>
       </c>
       <c r="I77" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J77" t="n">
         <v>2.75</v>
@@ -11496,7 +11496,7 @@
         <v>9</v>
       </c>
       <c r="AB77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC77" t="n">
         <v>19</v>
@@ -11520,7 +11520,7 @@
         <v>351</v>
       </c>
       <c r="AJ77" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK77" t="n">
         <v>19</v>
@@ -11604,10 +11604,10 @@
         <v>2.63</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R78" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S78" t="n">
         <v>5</v>
@@ -11681,10 +11681,10 @@
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>
       <c r="AR78" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="79">
@@ -11719,13 +11719,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I79" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J79" t="n">
         <v>2.5</v>
@@ -11734,7 +11734,7 @@
         <v>2.1</v>
       </c>
       <c r="L79" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M79" t="n">
         <v>1.07</v>
@@ -11767,10 +11767,10 @@
         <v>2.63</v>
       </c>
       <c r="W79" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X79" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y79" t="n">
         <v>6.5</v>
@@ -11785,7 +11785,7 @@
         <v>15</v>
       </c>
       <c r="AC79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD79" t="n">
         <v>29</v>
@@ -11794,7 +11794,7 @@
         <v>9</v>
       </c>
       <c r="AF79" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG79" t="n">
         <v>17</v>
@@ -11803,7 +11803,7 @@
         <v>51</v>
       </c>
       <c r="AI79" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ79" t="n">
         <v>11</v>
@@ -11815,7 +11815,7 @@
         <v>15</v>
       </c>
       <c r="AM79" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN79" t="n">
         <v>41</v>
@@ -11896,10 +11896,10 @@
         <v>1.75</v>
       </c>
       <c r="S80" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T80" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U80" t="n">
         <v>1.44</v>
@@ -12283,10 +12283,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I83" t="n">
         <v>5.25</v>
@@ -12295,16 +12295,16 @@
         <v>2.25</v>
       </c>
       <c r="K83" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L83" t="n">
         <v>6.5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O83" t="n">
         <v>1.4</v>
@@ -12313,10 +12313,10 @@
         <v>2.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R83" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S83" t="n">
         <v>4.33</v>
@@ -12337,7 +12337,7 @@
         <v>1.57</v>
       </c>
       <c r="Y83" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z83" t="n">
         <v>6.5</v>
@@ -12352,10 +12352,10 @@
         <v>15</v>
       </c>
       <c r="AD83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE83" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF83" t="n">
         <v>8</v>
@@ -12364,11 +12364,11 @@
         <v>23</v>
       </c>
       <c r="AH83" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI83" t="inlineStr"/>
       <c r="AJ83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK83" t="n">
         <v>26</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H85" t="n">
         <v>4.1</v>
@@ -12579,10 +12579,10 @@
         <v>2.1</v>
       </c>
       <c r="K85" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L85" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M85" t="n">
         <v>1.05</v>
@@ -12615,22 +12615,22 @@
         <v>2.75</v>
       </c>
       <c r="W85" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X85" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y85" t="n">
         <v>6</v>
       </c>
       <c r="Z85" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA85" t="n">
         <v>8.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC85" t="n">
         <v>13</v>
@@ -12666,7 +12666,7 @@
         <v>67</v>
       </c>
       <c r="AN85" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO85" t="n">
         <v>51</v>
@@ -12867,10 +12867,10 @@
         <v>2.3</v>
       </c>
       <c r="M87" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O87" t="n">
         <v>1.36</v>
@@ -13131,13 +13131,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H89" t="n">
         <v>3.75</v>
       </c>
       <c r="I89" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J89" t="n">
         <v>2.38</v>
@@ -13149,10 +13149,10 @@
         <v>5</v>
       </c>
       <c r="M89" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O89" t="n">
         <v>1.3</v>
@@ -13188,7 +13188,7 @@
         <v>6.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA89" t="n">
         <v>8.5</v>
@@ -13272,58 +13272,58 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H90" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I90" t="n">
         <v>2.88</v>
       </c>
       <c r="J90" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K90" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L90" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M90" t="n">
         <v>1.08</v>
       </c>
       <c r="N90" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O90" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P90" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R90" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S90" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T90" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U90" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V90" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W90" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X90" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y90" t="n">
         <v>7</v>
@@ -13338,13 +13338,13 @@
         <v>23</v>
       </c>
       <c r="AC90" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD90" t="n">
         <v>34</v>
       </c>
       <c r="AE90" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF90" t="n">
         <v>6</v>
@@ -13353,10 +13353,10 @@
         <v>17</v>
       </c>
       <c r="AH90" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI90" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ90" t="n">
         <v>7.5</v>
@@ -13447,16 +13447,16 @@
         <v>2.75</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R91" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S91" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T91" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U91" t="n">
         <v>1.5</v>
@@ -13558,7 +13558,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="H92" t="n">
         <v>5.2</v>
@@ -13567,10 +13567,10 @@
         <v>1.2</v>
       </c>
       <c r="J92" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="K92" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="L92" t="n">
         <v>1.6</v>
@@ -13581,7 +13581,7 @@
         <v>1.17</v>
       </c>
       <c r="P92" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Q92" t="n">
         <v>1.57</v>
@@ -13598,31 +13598,31 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X92" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Y92" t="n">
         <v>22</v>
       </c>
       <c r="Z92" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA92" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB92" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AC92" t="n">
         <v>150</v>
       </c>
       <c r="AD92" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AE92" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF92" t="n">
         <v>9.5</v>
@@ -13631,7 +13631,7 @@
         <v>24</v>
       </c>
       <c r="AH92" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI92" t="n">
         <v>101</v>
@@ -13691,16 +13691,16 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="H93" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I93" t="n">
         <v>1.65</v>
       </c>
       <c r="J93" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="K93" t="n">
         <v>2.25</v>
@@ -13737,7 +13737,7 @@
         <v>2.12</v>
       </c>
       <c r="Y93" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z93" t="n">
         <v>21</v>
@@ -13749,10 +13749,10 @@
         <v>50</v>
       </c>
       <c r="AC93" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD93" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE93" t="n">
         <v>13</v>
@@ -13764,25 +13764,25 @@
         <v>11.25</v>
       </c>
       <c r="AH93" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI93" t="n">
         <v>200</v>
       </c>
       <c r="AJ93" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AK93" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AL93" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AM93" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AN93" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AO93" t="n">
         <v>17</v>
@@ -13860,10 +13860,10 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X94" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Y94" t="n">
         <v>18</v>
@@ -13953,40 +13953,40 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H95" t="n">
         <v>3.25</v>
       </c>
       <c r="I95" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J95" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K95" t="n">
         <v>2.1</v>
       </c>
       <c r="L95" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M95" t="n">
         <v>1.06</v>
       </c>
       <c r="N95" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O95" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P95" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q95" t="n">
         <v>2.05</v>
       </c>
       <c r="R95" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S95" t="n">
         <v>3.5</v>
@@ -14001,22 +14001,22 @@
         <v>2.63</v>
       </c>
       <c r="W95" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X95" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y95" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB95" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC95" t="n">
         <v>23</v>
@@ -14043,10 +14043,10 @@
         <v>8</v>
       </c>
       <c r="AK95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL95" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM95" t="n">
         <v>23</v>
@@ -14112,10 +14112,10 @@
         <v>2.75</v>
       </c>
       <c r="M96" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O96" t="n">
         <v>1.4</v>
@@ -14130,10 +14130,10 @@
         <v>1.62</v>
       </c>
       <c r="S96" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T96" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U96" t="n">
         <v>1.5</v>
@@ -14265,16 +14265,16 @@
         <v>2.75</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R97" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S97" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T97" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U97" t="n">
         <v>1.5</v>
@@ -14376,22 +14376,22 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H98" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I98" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J98" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="K98" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L98" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
@@ -14414,10 +14414,10 @@
         <v>1.31</v>
       </c>
       <c r="U98" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="V98" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="W98" t="n">
         <v>1.76</v>
@@ -14426,28 +14426,28 @@
         <v>1.95</v>
       </c>
       <c r="Y98" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z98" t="n">
         <v>8</v>
       </c>
       <c r="AA98" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AB98" t="n">
         <v>14</v>
       </c>
       <c r="AC98" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD98" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE98" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF98" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AG98" t="n">
         <v>11.75</v>
@@ -14462,19 +14462,19 @@
         <v>8.75</v>
       </c>
       <c r="AK98" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL98" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM98" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN98" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO98" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AP98" t="inlineStr"/>
       <c r="AQ98" t="inlineStr"/>
@@ -14513,57 +14513,57 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H99" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="J99" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K99" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L99" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P99" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R99" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S99" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T99" t="n">
         <v>1.19</v>
       </c>
       <c r="U99" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V99" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="W99" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X99" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Y99" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Z99" t="n">
         <v>13.5</v>
@@ -14581,10 +14581,10 @@
         <v>35</v>
       </c>
       <c r="AE99" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AF99" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AG99" t="n">
         <v>13</v>
@@ -14596,7 +14596,7 @@
         <v>500</v>
       </c>
       <c r="AJ99" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AK99" t="n">
         <v>7.6</v>
@@ -14611,7 +14611,7 @@
         <v>15.5</v>
       </c>
       <c r="AO99" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP99" t="inlineStr"/>
       <c r="AQ99" t="inlineStr"/>
@@ -14653,25 +14653,25 @@
         <v>2.37</v>
       </c>
       <c r="H100" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I100" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J100" t="n">
         <v>3.15</v>
       </c>
       <c r="K100" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="L100" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M100" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N100" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O100" t="n">
         <v>1.5</v>
@@ -14683,7 +14683,7 @@
         <v>2.65</v>
       </c>
       <c r="R100" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S100" t="n">
         <v>4.3</v>
@@ -14692,16 +14692,16 @@
         <v>1.18</v>
       </c>
       <c r="U100" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V100" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W100" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X100" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Y100" t="n">
         <v>5</v>
@@ -14719,10 +14719,10 @@
         <v>20</v>
       </c>
       <c r="AD100" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE100" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AF100" t="n">
         <v>4.8</v>
@@ -14731,7 +14731,7 @@
         <v>13.5</v>
       </c>
       <c r="AH100" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI100" t="n">
         <v>101</v>
@@ -14821,10 +14821,10 @@
         <v>4</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R101" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S101" t="n">
         <v>2.75</v>
@@ -14950,10 +14950,10 @@
         <v>5</v>
       </c>
       <c r="M102" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N102" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O102" t="n">
         <v>1.25</v>
@@ -14962,16 +14962,16 @@
         <v>3.75</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R102" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S102" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T102" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U102" t="n">
         <v>1.36</v>
@@ -15097,22 +15097,22 @@
         <v>15</v>
       </c>
       <c r="O103" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P103" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R103" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S103" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T103" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U103" t="n">
         <v>1.3</v>
@@ -15178,10 +15178,10 @@
         <v>34</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR103" t="inlineStr"/>
       <c r="AS103" t="inlineStr"/>
@@ -15530,10 +15530,10 @@
         <v>4</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R106" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S106" t="n">
         <v>2.75</v>
@@ -15816,16 +15816,16 @@
         <v>3.75</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R108" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S108" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T108" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U108" t="n">
         <v>1.36</v>
@@ -16350,22 +16350,22 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H112" t="n">
         <v>4.1</v>
       </c>
       <c r="I112" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J112" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K112" t="n">
         <v>2.38</v>
       </c>
       <c r="L112" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M112" t="n">
         <v>1.04</v>
@@ -16407,7 +16407,7 @@
         <v>7.5</v>
       </c>
       <c r="Z112" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA112" t="n">
         <v>8.5</v>
@@ -16422,13 +16422,13 @@
         <v>23</v>
       </c>
       <c r="AE112" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF112" t="n">
         <v>8</v>
       </c>
       <c r="AG112" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH112" t="n">
         <v>51</v>
@@ -16440,13 +16440,13 @@
         <v>17</v>
       </c>
       <c r="AK112" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL112" t="n">
         <v>19</v>
       </c>
       <c r="AM112" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN112" t="n">
         <v>41</v>
@@ -16491,13 +16491,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>4.75</v>
       </c>
       <c r="I113" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J113" t="n">
         <v>1.91</v>
@@ -16512,7 +16512,7 @@
         <v>1.03</v>
       </c>
       <c r="N113" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O113" t="n">
         <v>1.18</v>
@@ -16521,10 +16521,10 @@
         <v>4.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R113" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S113" t="n">
         <v>2.5</v>
@@ -16584,22 +16584,22 @@
         <v>34</v>
       </c>
       <c r="AL113" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM113" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN113" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO113" t="n">
         <v>41</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR113" t="inlineStr"/>
       <c r="AS113" t="inlineStr"/>
@@ -16636,13 +16636,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>3.1</v>
       </c>
       <c r="I114" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J114" t="n">
         <v>3</v>
@@ -16657,7 +16657,7 @@
         <v>1.08</v>
       </c>
       <c r="N114" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O114" t="n">
         <v>1.4</v>
@@ -16666,16 +16666,16 @@
         <v>2.75</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R114" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S114" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T114" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U114" t="n">
         <v>1.5</v>
@@ -16690,10 +16690,10 @@
         <v>1.8</v>
       </c>
       <c r="Y114" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z114" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA114" t="n">
         <v>9.5</v>
@@ -16708,13 +16708,13 @@
         <v>34</v>
       </c>
       <c r="AE114" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF114" t="n">
         <v>6</v>
       </c>
       <c r="AG114" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH114" t="n">
         <v>51</v>
@@ -16726,13 +16726,13 @@
         <v>9</v>
       </c>
       <c r="AK114" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL114" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM114" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN114" t="n">
         <v>29</v>
@@ -17077,10 +17077,10 @@
         <v>2.75</v>
       </c>
       <c r="M117" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N117" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O117" t="n">
         <v>1.4</v>
@@ -17089,10 +17089,10 @@
         <v>2.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R117" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S117" t="n">
         <v>4.33</v>
@@ -17101,10 +17101,10 @@
         <v>1.2</v>
       </c>
       <c r="U117" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V117" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W117" t="n">
         <v>2</v>
@@ -17152,7 +17152,7 @@
         <v>8.5</v>
       </c>
       <c r="AL117" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM117" t="n">
         <v>17</v>
@@ -17165,8 +17165,12 @@
       </c>
       <c r="AP117" t="inlineStr"/>
       <c r="AQ117" t="inlineStr"/>
-      <c r="AR117" t="inlineStr"/>
-      <c r="AS117" t="inlineStr"/>
+      <c r="AR117" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -17218,22 +17222,22 @@
         <v>2.5</v>
       </c>
       <c r="M118" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N118" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O118" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P118" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q118" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R118" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S118" t="n">
         <v>3.4</v>
@@ -17341,13 +17345,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H119" t="n">
         <v>2.63</v>
       </c>
       <c r="I119" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J119" t="n">
         <v>3</v>
@@ -17419,22 +17423,22 @@
         <v>5</v>
       </c>
       <c r="AG119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH119" t="n">
         <v>51</v>
       </c>
       <c r="AI119" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK119" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM119" t="n">
         <v>41</v>
@@ -17489,43 +17493,43 @@
         <v>2.5</v>
       </c>
       <c r="H120" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J120" t="n">
         <v>3.25</v>
       </c>
-      <c r="J120" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K120" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L120" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M120" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N120" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R120" t="n">
         <v>1.5</v>
       </c>
-      <c r="P120" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R120" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S120" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T120" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U120" t="n">
         <v>1.57</v>
@@ -17534,10 +17538,10 @@
         <v>2.25</v>
       </c>
       <c r="W120" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X120" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Y120" t="n">
         <v>6.5</v>
@@ -17546,7 +17550,7 @@
         <v>11</v>
       </c>
       <c r="AA120" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB120" t="n">
         <v>23</v>
@@ -17558,7 +17562,7 @@
         <v>41</v>
       </c>
       <c r="AE120" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF120" t="n">
         <v>5.5</v>
@@ -17570,22 +17574,22 @@
         <v>67</v>
       </c>
       <c r="AI120" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ120" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK120" t="n">
         <v>15</v>
       </c>
       <c r="AL120" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM120" t="n">
         <v>34</v>
       </c>
       <c r="AN120" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO120" t="n">
         <v>41</v>
@@ -17593,10 +17597,10 @@
       <c r="AP120" t="inlineStr"/>
       <c r="AQ120" t="inlineStr"/>
       <c r="AR120" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="121">
@@ -17913,46 +17917,46 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I123" t="n">
         <v>3.25</v>
       </c>
       <c r="J123" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K123" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L123" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M123" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N123" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O123" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P123" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R123" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S123" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T123" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U123" t="n">
         <v>1.62</v>
@@ -17961,25 +17965,25 @@
         <v>2.2</v>
       </c>
       <c r="W123" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X123" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y123" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z123" t="n">
         <v>10</v>
       </c>
       <c r="AA123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB123" t="n">
         <v>23</v>
       </c>
       <c r="AC123" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD123" t="n">
         <v>41</v>
@@ -17991,7 +17995,7 @@
         <v>6</v>
       </c>
       <c r="AG123" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH123" t="n">
         <v>81</v>
@@ -18009,21 +18013,21 @@
         <v>13</v>
       </c>
       <c r="AM123" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN123" t="n">
         <v>34</v>
       </c>
       <c r="AO123" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP123" t="inlineStr"/>
       <c r="AQ123" t="inlineStr"/>
       <c r="AR123" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="124">
@@ -18058,13 +18062,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>3.2</v>
       </c>
       <c r="I124" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J124" t="n">
         <v>2.75</v>
@@ -18082,22 +18086,22 @@
         <v>7</v>
       </c>
       <c r="O124" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P124" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R124" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S124" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T124" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U124" t="n">
         <v>1.57</v>
@@ -18106,10 +18110,10 @@
         <v>2.25</v>
       </c>
       <c r="W124" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X124" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y124" t="n">
         <v>5.5</v>
@@ -18165,10 +18169,10 @@
       <c r="AP124" t="inlineStr"/>
       <c r="AQ124" t="inlineStr"/>
       <c r="AR124" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="125">
@@ -18344,22 +18348,22 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>3.2</v>
       </c>
       <c r="I126" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J126" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K126" t="n">
         <v>1.95</v>
       </c>
       <c r="L126" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M126" t="n">
         <v>1.08</v>
@@ -18401,13 +18405,13 @@
         <v>7</v>
       </c>
       <c r="Z126" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA126" t="n">
         <v>11</v>
       </c>
-      <c r="AA126" t="n">
-        <v>10</v>
-      </c>
       <c r="AB126" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC126" t="n">
         <v>23</v>
@@ -18434,7 +18438,7 @@
         <v>7.5</v>
       </c>
       <c r="AK126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL126" t="n">
         <v>11</v>
@@ -18489,46 +18493,46 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H127" t="n">
         <v>3.2</v>
       </c>
       <c r="I127" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J127" t="n">
         <v>3.1</v>
       </c>
       <c r="K127" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N127" t="n">
+        <v>9</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q127" t="n">
         <v>2.05</v>
       </c>
-      <c r="L127" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M127" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N127" t="n">
-        <v>10</v>
-      </c>
-      <c r="O127" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P127" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R127" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S127" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T127" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U127" t="n">
         <v>1.44</v>
@@ -18537,13 +18541,13 @@
         <v>2.63</v>
       </c>
       <c r="W127" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X127" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y127" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z127" t="n">
         <v>11</v>
@@ -18552,7 +18556,7 @@
         <v>9.5</v>
       </c>
       <c r="AB127" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC127" t="n">
         <v>19</v>
@@ -18576,19 +18580,19 @@
         <v>251</v>
       </c>
       <c r="AJ127" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK127" t="n">
         <v>15</v>
       </c>
       <c r="AL127" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM127" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN127" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO127" t="n">
         <v>34</v>
@@ -18912,13 +18916,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H130" t="n">
         <v>3.5</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J130" t="n">
         <v>4</v>
@@ -18927,13 +18931,13 @@
         <v>2.2</v>
       </c>
       <c r="L130" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M130" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N130" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O130" t="n">
         <v>1.25</v>
@@ -18942,22 +18946,22 @@
         <v>3.75</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R130" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S130" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T130" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U130" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V130" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W130" t="n">
         <v>1.73</v>
@@ -18972,7 +18976,7 @@
         <v>19</v>
       </c>
       <c r="AA130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB130" t="n">
         <v>41</v>
@@ -19002,16 +19006,16 @@
         <v>8</v>
       </c>
       <c r="AK130" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL130" t="n">
         <v>9</v>
       </c>
       <c r="AM130" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN130" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO130" t="n">
         <v>26</v>
@@ -19194,32 +19198,32 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="H132" t="n">
         <v>5.8</v>
       </c>
       <c r="I132" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J132" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K132" t="n">
         <v>2.75</v>
       </c>
       <c r="L132" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R132" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="S132" t="n">
         <v>1.93</v>
@@ -19230,22 +19234,22 @@
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="X132" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="Y132" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z132" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA132" t="n">
         <v>32</v>
       </c>
       <c r="AB132" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AC132" t="n">
         <v>120</v>
@@ -19269,10 +19273,10 @@
         <v>500</v>
       </c>
       <c r="AJ132" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AK132" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AL132" t="n">
         <v>8.25</v>
@@ -19332,7 +19336,7 @@
         <v>1.14</v>
       </c>
       <c r="J133" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="K133" t="n">
         <v>2.87</v>
@@ -19366,7 +19370,7 @@
         <v>37</v>
       </c>
       <c r="AB133" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AC133" t="n">
         <v>150</v>
@@ -19399,7 +19403,7 @@
         <v>9</v>
       </c>
       <c r="AM133" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AN133" t="n">
         <v>9</v>
@@ -19467,7 +19471,7 @@
         <v>1.37</v>
       </c>
       <c r="P134" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q134" t="n">
         <v>2.05</v>
@@ -19476,10 +19480,10 @@
         <v>1.62</v>
       </c>
       <c r="S134" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T134" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="U134" t="n">
         <v>1.4</v>
@@ -19488,10 +19492,10 @@
         <v>2.42</v>
       </c>
       <c r="W134" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="X134" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Y134" t="n">
         <v>5.5</v>
@@ -19871,22 +19875,22 @@
         <v>15</v>
       </c>
       <c r="O137" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P137" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R137" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S137" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T137" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U137" t="n">
         <v>1.33</v>
@@ -20137,16 +20141,16 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H139" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I139" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J139" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K139" t="n">
         <v>2.63</v>
@@ -20167,10 +20171,10 @@
         <v>5.5</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R139" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S139" t="n">
         <v>2.25</v>
@@ -20194,13 +20198,13 @@
         <v>8.5</v>
       </c>
       <c r="Z139" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA139" t="n">
         <v>8.5</v>
       </c>
       <c r="AB139" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC139" t="n">
         <v>11</v>
@@ -20209,10 +20213,10 @@
         <v>23</v>
       </c>
       <c r="AE139" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF139" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG139" t="n">
         <v>19</v>
@@ -20224,28 +20228,28 @@
         <v>251</v>
       </c>
       <c r="AJ139" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK139" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL139" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM139" t="n">
         <v>101</v>
       </c>
       <c r="AN139" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO139" t="n">
         <v>51</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AQ139" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AR139" t="inlineStr"/>
       <c r="AS139" t="inlineStr"/>
@@ -20318,10 +20322,10 @@
         <v>1.75</v>
       </c>
       <c r="S140" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T140" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U140" t="n">
         <v>1.44</v>
@@ -20423,30 +20427,30 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I141" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J141" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K141" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L141" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P141" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q141" t="n">
         <v>1.65</v>
@@ -20455,10 +20459,10 @@
         <v>1.98</v>
       </c>
       <c r="S141" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="T141" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr"/>
@@ -20472,7 +20476,7 @@
         <v>8</v>
       </c>
       <c r="Z141" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA141" t="n">
         <v>8.25</v>
@@ -20487,13 +20491,13 @@
         <v>23</v>
       </c>
       <c r="AE141" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF141" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AG141" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH141" t="n">
         <v>60</v>
@@ -20508,16 +20512,16 @@
         <v>24</v>
       </c>
       <c r="AL141" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM141" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN141" t="n">
         <v>35</v>
       </c>
       <c r="AO141" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP141" t="inlineStr"/>
       <c r="AQ141" t="inlineStr"/>
@@ -20830,13 +20834,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H144" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I144" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J144" t="n">
         <v>1.95</v>
@@ -20845,19 +20849,19 @@
         <v>2.05</v>
       </c>
       <c r="L144" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M144" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N144" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O144" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P144" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q144" t="n">
         <v>2.6</v>
@@ -20878,19 +20882,19 @@
         <v>2.25</v>
       </c>
       <c r="W144" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X144" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y144" t="n">
         <v>4</v>
       </c>
       <c r="Z144" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AA144" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB144" t="n">
         <v>7.5</v>
@@ -20911,7 +20915,7 @@
         <v>41</v>
       </c>
       <c r="AH144" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AI144" t="n">
         <v>101</v>
@@ -20926,21 +20930,21 @@
         <v>34</v>
       </c>
       <c r="AM144" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN144" t="n">
         <v>126</v>
       </c>
       <c r="AO144" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP144" t="inlineStr"/>
       <c r="AQ144" t="inlineStr"/>
       <c r="AR144" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="145">
@@ -21116,28 +21120,28 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I146" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J146" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K146" t="n">
         <v>1.95</v>
       </c>
       <c r="L146" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M146" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N146" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O146" t="n">
         <v>1.5</v>
@@ -21173,7 +21177,7 @@
         <v>8.5</v>
       </c>
       <c r="Z146" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA146" t="n">
         <v>15</v>
@@ -21206,7 +21210,7 @@
         <v>5.5</v>
       </c>
       <c r="AK146" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL146" t="n">
         <v>9.5</v>
@@ -21215,7 +21219,7 @@
         <v>17</v>
       </c>
       <c r="AN146" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO146" t="n">
         <v>41</v>
@@ -21223,10 +21227,10 @@
       <c r="AP146" t="inlineStr"/>
       <c r="AQ146" t="inlineStr"/>
       <c r="AR146" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="147">
@@ -21264,10 +21268,10 @@
         <v>2.3</v>
       </c>
       <c r="H147" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I147" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J147" t="n">
         <v>2.88</v>
@@ -21291,10 +21295,10 @@
         <v>4.5</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R147" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S147" t="n">
         <v>2.5</v>
@@ -21303,16 +21307,16 @@
         <v>1.5</v>
       </c>
       <c r="U147" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V147" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W147" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X147" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y147" t="n">
         <v>11</v>
@@ -21330,7 +21334,7 @@
         <v>17</v>
       </c>
       <c r="AD147" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE147" t="n">
         <v>15</v>
@@ -21345,10 +21349,10 @@
         <v>34</v>
       </c>
       <c r="AI147" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ147" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK147" t="n">
         <v>17</v>
@@ -21363,7 +21367,7 @@
         <v>21</v>
       </c>
       <c r="AO147" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP147" t="n">
         <v>2.03</v>
@@ -21406,28 +21410,28 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H148" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I148" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J148" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J148" t="n">
-        <v>3.25</v>
       </c>
       <c r="K148" t="n">
         <v>1.95</v>
       </c>
       <c r="L148" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M148" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N148" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O148" t="n">
         <v>1.44</v>
@@ -21460,13 +21464,13 @@
         <v>1.73</v>
       </c>
       <c r="Y148" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB148" t="n">
         <v>23</v>
@@ -21484,16 +21488,16 @@
         <v>5.5</v>
       </c>
       <c r="AG148" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH148" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI148" t="n">
         <v>900</v>
       </c>
       <c r="AJ148" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK148" t="n">
         <v>15</v>
@@ -21505,7 +21509,7 @@
         <v>34</v>
       </c>
       <c r="AN148" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO148" t="n">
         <v>41</v>
@@ -21704,7 +21708,7 @@
         <v>2.75</v>
       </c>
       <c r="K150" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L150" t="n">
         <v>3.75</v>
@@ -21713,25 +21717,25 @@
         <v>1.04</v>
       </c>
       <c r="N150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O150" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P150" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R150" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S150" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T150" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U150" t="n">
         <v>1.36</v>
@@ -21746,7 +21750,7 @@
         <v>2.1</v>
       </c>
       <c r="Y150" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z150" t="n">
         <v>11</v>
@@ -21767,7 +21771,7 @@
         <v>12</v>
       </c>
       <c r="AF150" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG150" t="n">
         <v>13</v>
@@ -21779,7 +21783,7 @@
         <v>151</v>
       </c>
       <c r="AJ150" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK150" t="n">
         <v>17</v>
@@ -21791,7 +21795,7 @@
         <v>34</v>
       </c>
       <c r="AN150" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO150" t="n">
         <v>29</v>
@@ -21833,13 +21837,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H151" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I151" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J151" t="n">
         <v>3.1</v>
@@ -21848,16 +21852,16 @@
         <v>2.2</v>
       </c>
       <c r="L151" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M151" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N151" t="n">
         <v>11</v>
       </c>
       <c r="O151" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P151" t="n">
         <v>3.75</v>
@@ -21872,7 +21876,7 @@
         <v>3</v>
       </c>
       <c r="T151" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U151" t="n">
         <v>1.36</v>
@@ -21881,22 +21885,22 @@
         <v>3</v>
       </c>
       <c r="W151" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X151" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y151" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z151" t="n">
         <v>13</v>
       </c>
       <c r="AA151" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB151" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC151" t="n">
         <v>19</v>
@@ -21905,7 +21909,7 @@
         <v>26</v>
       </c>
       <c r="AE151" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF151" t="n">
         <v>6.5</v>
@@ -21926,7 +21930,7 @@
         <v>15</v>
       </c>
       <c r="AL151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM151" t="n">
         <v>29</v>
@@ -21935,7 +21939,7 @@
         <v>21</v>
       </c>
       <c r="AO151" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP151" t="inlineStr"/>
       <c r="AQ151" t="inlineStr"/>
@@ -21992,13 +21996,13 @@
         <v>4.33</v>
       </c>
       <c r="M152" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N152" t="n">
         <v>13</v>
       </c>
       <c r="O152" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P152" t="n">
         <v>3.75</v>
@@ -22013,7 +22017,7 @@
         <v>3</v>
       </c>
       <c r="T152" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U152" t="n">
         <v>1.36</v>
@@ -22256,16 +22260,16 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H154" t="n">
         <v>3.2</v>
       </c>
       <c r="I154" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J154" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K154" t="n">
         <v>2.05</v>
@@ -22277,7 +22281,7 @@
         <v>1.07</v>
       </c>
       <c r="N154" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O154" t="n">
         <v>1.36</v>
@@ -22313,13 +22317,13 @@
         <v>8.5</v>
       </c>
       <c r="Z154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA154" t="n">
         <v>11</v>
       </c>
       <c r="AB154" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC154" t="n">
         <v>26</v>
@@ -22331,7 +22335,7 @@
         <v>8.5</v>
       </c>
       <c r="AF154" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG154" t="n">
         <v>15</v>
@@ -22352,7 +22356,7 @@
         <v>10</v>
       </c>
       <c r="AM154" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN154" t="n">
         <v>21</v>
@@ -22536,28 +22540,28 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H156" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I156" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J156" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K156" t="n">
         <v>2.05</v>
       </c>
       <c r="L156" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M156" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N156" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O156" t="n">
         <v>1.4</v>
@@ -22572,10 +22576,10 @@
         <v>1.62</v>
       </c>
       <c r="S156" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T156" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U156" t="n">
         <v>1.5</v>
@@ -22599,7 +22603,7 @@
         <v>15</v>
       </c>
       <c r="AB156" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC156" t="n">
         <v>41</v>
@@ -22620,7 +22624,7 @@
         <v>67</v>
       </c>
       <c r="AI156" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ156" t="n">
         <v>6</v>
@@ -22686,7 +22690,7 @@
         <v>12</v>
       </c>
       <c r="J157" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K157" t="n">
         <v>2.6</v>
@@ -22818,7 +22822,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H158" t="n">
         <v>5.5</v>
@@ -22827,7 +22831,7 @@
         <v>9</v>
       </c>
       <c r="J158" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="K158" t="n">
         <v>2.5</v>
@@ -22981,10 +22985,10 @@
         <v>4.5</v>
       </c>
       <c r="M159" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N159" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O159" t="n">
         <v>1.36</v>
@@ -22993,16 +22997,16 @@
         <v>3</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R159" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S159" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T159" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U159" t="n">
         <v>1.5</v>
@@ -23386,13 +23390,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H162" t="n">
         <v>3.3</v>
       </c>
       <c r="I162" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J162" t="n">
         <v>3.1</v>
@@ -23401,7 +23405,7 @@
         <v>2</v>
       </c>
       <c r="L162" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M162" t="n">
         <v>1.07</v>
@@ -23545,10 +23549,10 @@
         <v>1.83</v>
       </c>
       <c r="M163" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N163" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O163" t="n">
         <v>1.2</v>
@@ -23557,16 +23561,16 @@
         <v>4.33</v>
       </c>
       <c r="Q163" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R163" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S163" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T163" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U163" t="n">
         <v>1.3</v>
@@ -23702,10 +23706,10 @@
         <v>5</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R164" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S164" t="n">
         <v>2.1</v>
@@ -23838,7 +23842,7 @@
         <v>1.04</v>
       </c>
       <c r="N165" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O165" t="n">
         <v>1.22</v>
@@ -23982,10 +23986,10 @@
         <v>9</v>
       </c>
       <c r="O166" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P166" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q166" t="n">
         <v>2.1</v>
@@ -24099,7 +24103,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H167" t="n">
         <v>3</v>
@@ -24108,13 +24112,13 @@
         <v>2.7</v>
       </c>
       <c r="J167" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K167" t="n">
         <v>1.95</v>
       </c>
       <c r="L167" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M167" t="n">
         <v>1.1</v>
@@ -24156,7 +24160,7 @@
         <v>7.5</v>
       </c>
       <c r="Z167" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA167" t="n">
         <v>11</v>
@@ -24195,7 +24199,7 @@
         <v>11</v>
       </c>
       <c r="AM167" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN167" t="n">
         <v>23</v>
@@ -24949,19 +24953,19 @@
         </is>
       </c>
       <c r="G173" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J173" t="n">
         <v>5.4</v>
       </c>
-      <c r="H173" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J173" t="n">
-        <v>5.7</v>
-      </c>
       <c r="K173" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L173" t="n">
         <v>2.12</v>
@@ -24970,76 +24974,76 @@
         <v>1.07</v>
       </c>
       <c r="N173" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O173" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P173" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q173" t="n">
+        <v>2</v>
+      </c>
+      <c r="R173" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W173" t="n">
         <v>2.05</v>
       </c>
-      <c r="R173" t="n">
+      <c r="X173" t="n">
         <v>1.7</v>
-      </c>
-      <c r="S173" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T173" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U173" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V173" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W173" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X173" t="n">
-        <v>1.65</v>
       </c>
       <c r="Y173" t="n">
         <v>12.5</v>
       </c>
       <c r="Z173" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA173" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB173" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AC173" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD173" t="n">
         <v>70</v>
       </c>
-      <c r="AD173" t="n">
-        <v>75</v>
-      </c>
       <c r="AE173" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AF173" t="n">
         <v>7.4</v>
       </c>
       <c r="AG173" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH173" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI173" t="n">
         <v>900</v>
       </c>
       <c r="AJ173" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AK173" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AL173" t="n">
         <v>8.5</v>
@@ -25051,7 +25055,7 @@
         <v>14</v>
       </c>
       <c r="AO173" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP173" t="inlineStr"/>
       <c r="AQ173" t="inlineStr"/>
@@ -25240,19 +25244,19 @@
         <v>3.55</v>
       </c>
       <c r="J175" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K175" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L175" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="M175" t="n">
         <v>1.08</v>
       </c>
       <c r="N175" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O175" t="n">
         <v>1.36</v>
@@ -25267,25 +25271,25 @@
         <v>1.72</v>
       </c>
       <c r="S175" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T175" t="n">
         <v>1.27</v>
       </c>
       <c r="U175" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V175" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="W175" t="n">
         <v>1.83</v>
       </c>
       <c r="X175" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Y175" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Z175" t="n">
         <v>10.25</v>
@@ -25297,13 +25301,13 @@
         <v>21</v>
       </c>
       <c r="AC175" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD175" t="n">
         <v>32</v>
       </c>
       <c r="AE175" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AF175" t="n">
         <v>6.6</v>
@@ -25318,7 +25322,7 @@
         <v>800</v>
       </c>
       <c r="AJ175" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK175" t="n">
         <v>19.5</v>
@@ -25333,7 +25337,7 @@
         <v>37</v>
       </c>
       <c r="AO175" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP175" t="inlineStr"/>
       <c r="AQ175" t="inlineStr"/>
@@ -25372,22 +25376,22 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="H176" t="n">
         <v>3.45</v>
       </c>
       <c r="I176" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J176" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="K176" t="n">
         <v>2.12</v>
       </c>
       <c r="L176" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="M176" t="n">
         <v>1.06</v>
@@ -25423,22 +25427,22 @@
         <v>1.7</v>
       </c>
       <c r="X176" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Y176" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="Z176" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA176" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB176" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC176" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD176" t="n">
         <v>28</v>
@@ -25459,22 +25463,22 @@
         <v>500</v>
       </c>
       <c r="AJ176" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AK176" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL176" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM176" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AN176" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO176" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP176" t="inlineStr"/>
       <c r="AQ176" t="inlineStr"/>
@@ -25795,28 +25799,28 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H179" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I179" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J179" t="n">
         <v>4</v>
       </c>
       <c r="K179" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L179" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M179" t="n">
         <v>1.07</v>
       </c>
       <c r="N179" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O179" t="n">
         <v>1.33</v>
@@ -25831,10 +25835,10 @@
         <v>1.73</v>
       </c>
       <c r="S179" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T179" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U179" t="n">
         <v>1.44</v>
@@ -25852,7 +25856,7 @@
         <v>10</v>
       </c>
       <c r="Z179" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA179" t="n">
         <v>13</v>
@@ -25888,13 +25892,13 @@
         <v>10</v>
       </c>
       <c r="AL179" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM179" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN179" t="n">
         <v>19</v>
-      </c>
-      <c r="AN179" t="n">
-        <v>17</v>
       </c>
       <c r="AO179" t="n">
         <v>29</v>
@@ -25960,16 +25964,16 @@
         <v>9</v>
       </c>
       <c r="O180" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P180" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q180" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R180" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S180" t="n">
         <v>3.75</v>
@@ -26240,16 +26244,16 @@
         <v>3.75</v>
       </c>
       <c r="M182" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O182" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P182" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q182" t="n">
         <v>2.1</v>
@@ -26369,7 +26373,7 @@
         <v>3.2</v>
       </c>
       <c r="I183" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J183" t="n">
         <v>2.75</v>
@@ -26381,22 +26385,22 @@
         <v>4</v>
       </c>
       <c r="M183" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N183" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O183" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P183" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q183" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R183" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S183" t="n">
         <v>3.25</v>
@@ -26420,7 +26424,7 @@
         <v>8.5</v>
       </c>
       <c r="Z183" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA183" t="n">
         <v>9</v>
@@ -26534,10 +26538,10 @@
         <v>3</v>
       </c>
       <c r="Q184" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R184" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S184" t="n">
         <v>4</v>
@@ -26588,7 +26592,7 @@
         <v>67</v>
       </c>
       <c r="AI184" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AJ184" t="n">
         <v>11</v>
@@ -26645,22 +26649,22 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H185" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I185" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J185" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K185" t="n">
         <v>2.1</v>
       </c>
       <c r="L185" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M185" t="n">
         <v>1.06</v>
@@ -26714,7 +26718,7 @@
         <v>17</v>
       </c>
       <c r="AD185" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE185" t="n">
         <v>9.5</v>
@@ -26726,16 +26730,16 @@
         <v>13</v>
       </c>
       <c r="AH185" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI185" t="n">
         <v>201</v>
       </c>
       <c r="AJ185" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK185" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL185" t="n">
         <v>13</v>
@@ -26744,7 +26748,7 @@
         <v>41</v>
       </c>
       <c r="AN185" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO185" t="n">
         <v>41</v>
@@ -27086,10 +27090,10 @@
         <v>2.75</v>
       </c>
       <c r="M188" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N188" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O188" t="n">
         <v>1.57</v>
@@ -27495,7 +27499,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H191" t="n">
         <v>4.5</v>
@@ -27558,7 +27562,7 @@
         <v>8.5</v>
       </c>
       <c r="AB191" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC191" t="n">
         <v>11</v>
@@ -27573,7 +27577,7 @@
         <v>9</v>
       </c>
       <c r="AG191" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH191" t="n">
         <v>51</v>
@@ -27585,16 +27589,16 @@
         <v>19</v>
       </c>
       <c r="AK191" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL191" t="n">
         <v>21</v>
       </c>
       <c r="AM191" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN191" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO191" t="n">
         <v>41</v>
@@ -27636,22 +27640,22 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H192" t="n">
         <v>3.4</v>
       </c>
       <c r="I192" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J192" t="n">
         <v>3</v>
       </c>
       <c r="K192" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L192" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M192" t="n">
         <v>1.03</v>
@@ -27699,10 +27703,10 @@
         <v>10</v>
       </c>
       <c r="AB192" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC192" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD192" t="n">
         <v>21</v>
@@ -27735,7 +27739,7 @@
         <v>29</v>
       </c>
       <c r="AN192" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO192" t="n">
         <v>23</v>
@@ -28063,64 +28067,64 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="H195" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I195" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="J195" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K195" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N195" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P195" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S195" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V195" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X195" t="n">
         <v>2.2</v>
       </c>
-      <c r="L195" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M195" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N195" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O195" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P195" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q195" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R195" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S195" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T195" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U195" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V195" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="W195" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X195" t="n">
-        <v>2.37</v>
-      </c>
       <c r="Y195" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="Z195" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA195" t="n">
         <v>9.25</v>
@@ -28129,31 +28133,31 @@
         <v>27</v>
       </c>
       <c r="AC195" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD195" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE195" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AF195" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AG195" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AH195" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI195" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AJ195" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK195" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL195" t="n">
         <v>9.75</v>
@@ -28162,10 +28166,10 @@
         <v>32</v>
       </c>
       <c r="AN195" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO195" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AP195" t="inlineStr"/>
       <c r="AQ195" t="inlineStr"/>
@@ -28204,22 +28208,22 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="H196" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I196" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J196" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K196" t="n">
         <v>2.05</v>
       </c>
       <c r="L196" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M196" t="n">
         <v>1.06</v>
@@ -28231,13 +28235,13 @@
         <v>1.27</v>
       </c>
       <c r="P196" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q196" t="n">
         <v>1.8</v>
       </c>
       <c r="R196" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S196" t="n">
         <v>2.87</v>
@@ -28249,7 +28253,7 @@
         <v>1.4</v>
       </c>
       <c r="V196" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="W196" t="n">
         <v>1.6</v>
@@ -28258,7 +28262,7 @@
         <v>2.18</v>
       </c>
       <c r="Y196" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z196" t="n">
         <v>15</v>
@@ -28267,19 +28271,19 @@
         <v>9.75</v>
       </c>
       <c r="AB196" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC196" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD196" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE196" t="n">
         <v>7.4</v>
       </c>
       <c r="AF196" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AG196" t="n">
         <v>11.75</v>
@@ -28291,10 +28295,10 @@
         <v>300</v>
       </c>
       <c r="AJ196" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK196" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL196" t="n">
         <v>9.25</v>
@@ -28303,10 +28307,10 @@
         <v>29</v>
       </c>
       <c r="AN196" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO196" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP196" t="inlineStr"/>
       <c r="AQ196" t="inlineStr"/>
@@ -28627,64 +28631,64 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H199" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I199" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J199" t="n">
         <v>2.6</v>
       </c>
       <c r="K199" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L199" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M199" t="n">
         <v>1.03</v>
       </c>
       <c r="N199" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O199" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P199" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q199" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S199" t="n">
         <v>2.25</v>
       </c>
-      <c r="S199" t="n">
+      <c r="T199" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X199" t="n">
         <v>2.5</v>
       </c>
-      <c r="T199" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U199" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V199" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W199" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X199" t="n">
-        <v>2.38</v>
-      </c>
       <c r="Y199" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z199" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA199" t="n">
         <v>9</v>
@@ -28699,10 +28703,10 @@
         <v>21</v>
       </c>
       <c r="AE199" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF199" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG199" t="n">
         <v>12</v>
@@ -28711,7 +28715,7 @@
         <v>34</v>
       </c>
       <c r="AI199" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ199" t="n">
         <v>15</v>
@@ -28720,22 +28724,22 @@
         <v>21</v>
       </c>
       <c r="AL199" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM199" t="n">
         <v>41</v>
       </c>
       <c r="AN199" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO199" t="n">
         <v>26</v>
       </c>
-      <c r="AO199" t="n">
-        <v>29</v>
-      </c>
       <c r="AP199" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AR199" t="inlineStr"/>
       <c r="AS199" t="inlineStr"/>
@@ -28772,13 +28776,13 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H200" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I200" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J200" t="n">
         <v>2.88</v>
@@ -28796,22 +28800,22 @@
         <v>11</v>
       </c>
       <c r="O200" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P200" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q200" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R200" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S200" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T200" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U200" t="n">
         <v>1.36</v>
@@ -28829,7 +28833,7 @@
         <v>9</v>
       </c>
       <c r="Z200" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA200" t="n">
         <v>9.5</v>
@@ -28871,7 +28875,7 @@
         <v>34</v>
       </c>
       <c r="AN200" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO200" t="n">
         <v>29</v>
@@ -28913,16 +28917,16 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H201" t="n">
         <v>3.6</v>
       </c>
       <c r="I201" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J201" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K201" t="n">
         <v>2.2</v>
@@ -28931,10 +28935,10 @@
         <v>2.88</v>
       </c>
       <c r="M201" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N201" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O201" t="n">
         <v>1.25</v>
@@ -28943,16 +28947,16 @@
         <v>3.75</v>
       </c>
       <c r="Q201" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R201" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S201" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T201" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U201" t="n">
         <v>1.36</v>
@@ -28970,7 +28974,7 @@
         <v>10</v>
       </c>
       <c r="Z201" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA201" t="n">
         <v>11</v>
@@ -28985,7 +28989,7 @@
         <v>29</v>
       </c>
       <c r="AE201" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF201" t="n">
         <v>7</v>
@@ -29054,22 +29058,22 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H202" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I202" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J202" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K202" t="n">
         <v>2.1</v>
       </c>
       <c r="L202" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M202" t="n">
         <v>1.06</v>
@@ -29102,28 +29106,28 @@
         <v>2.75</v>
       </c>
       <c r="W202" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X202" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y202" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z202" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA202" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB202" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC202" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD202" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE202" t="n">
         <v>10</v>
@@ -29132,28 +29136,28 @@
         <v>6.5</v>
       </c>
       <c r="AG202" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH202" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI202" t="n">
         <v>201</v>
       </c>
       <c r="AJ202" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK202" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL202" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM202" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN202" t="n">
         <v>29</v>
-      </c>
-      <c r="AN202" t="n">
-        <v>23</v>
       </c>
       <c r="AO202" t="n">
         <v>34</v>
@@ -29216,7 +29220,7 @@
         <v>1.06</v>
       </c>
       <c r="N203" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O203" t="n">
         <v>1.33</v>
@@ -29354,10 +29358,10 @@
         <v>3.5</v>
       </c>
       <c r="M204" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N204" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O204" t="n">
         <v>1.33</v>
@@ -29366,16 +29370,16 @@
         <v>3.25</v>
       </c>
       <c r="Q204" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R204" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S204" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T204" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U204" t="n">
         <v>1.44</v>
@@ -29548,22 +29552,22 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H206" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I206" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J206" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="K206" t="n">
         <v>1.93</v>
       </c>
       <c r="L206" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr"/>
@@ -29580,10 +29584,10 @@
         <v>1.44</v>
       </c>
       <c r="S206" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="T206" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="U206" t="n">
         <v>1.55</v>
@@ -29592,61 +29596,61 @@
         <v>2.15</v>
       </c>
       <c r="W206" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="X206" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Y206" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="Z206" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AA206" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB206" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AC206" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD206" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE206" t="n">
         <v>6.4</v>
       </c>
       <c r="AF206" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AG206" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH206" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI206" t="n">
         <v>101</v>
       </c>
       <c r="AJ206" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK206" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL206" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM206" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN206" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AO206" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AP206" t="inlineStr"/>
       <c r="AQ206" t="inlineStr"/>
@@ -29685,22 +29689,22 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H207" t="n">
         <v>2.77</v>
       </c>
       <c r="I207" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J207" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K207" t="n">
         <v>1.82</v>
       </c>
       <c r="L207" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="M207" t="n">
         <v>1.14</v>
@@ -29718,7 +29722,7 @@
         <v>2.7</v>
       </c>
       <c r="R207" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S207" t="n">
         <v>4.15</v>
@@ -29742,16 +29746,16 @@
         <v>5.4</v>
       </c>
       <c r="Z207" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA207" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB207" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC207" t="n">
         <v>27</v>
-      </c>
-      <c r="AC207" t="n">
-        <v>29</v>
       </c>
       <c r="AD207" t="n">
         <v>55</v>
@@ -29772,19 +29776,19 @@
         <v>101</v>
       </c>
       <c r="AJ207" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AK207" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL207" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM207" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN207" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO207" t="n">
         <v>65</v>
@@ -30680,19 +30684,19 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H218" t="n">
         <v>3.2</v>
       </c>
       <c r="I218" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J218" t="n">
         <v>3.25</v>
       </c>
       <c r="K218" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L218" t="n">
         <v>3.6</v>
@@ -30710,10 +30714,10 @@
         <v>3</v>
       </c>
       <c r="Q218" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R218" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S218" t="n">
         <v>4</v>
@@ -30728,10 +30732,10 @@
         <v>2.5</v>
       </c>
       <c r="W218" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X218" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y218" t="n">
         <v>7.5</v>
@@ -30779,7 +30783,7 @@
         <v>29</v>
       </c>
       <c r="AN218" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO218" t="n">
         <v>34</v>
@@ -30962,7 +30966,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H220" t="n">
         <v>3.7</v>
@@ -30992,10 +30996,10 @@
         <v>4</v>
       </c>
       <c r="Q220" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R220" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S220" t="n">
         <v>2.75</v>
@@ -31016,7 +31020,7 @@
         <v>2.1</v>
       </c>
       <c r="Y220" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z220" t="n">
         <v>11</v>
@@ -31058,7 +31062,7 @@
         <v>12</v>
       </c>
       <c r="AM220" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN220" t="n">
         <v>26</v>
@@ -31133,10 +31137,10 @@
         <v>3.75</v>
       </c>
       <c r="Q221" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R221" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S221" t="n">
         <v>3.25</v>
@@ -31244,13 +31248,13 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H222" t="n">
         <v>3.4</v>
       </c>
       <c r="I222" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J222" t="n">
         <v>2.88</v>
@@ -31262,10 +31266,10 @@
         <v>3.6</v>
       </c>
       <c r="M222" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N222" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O222" t="n">
         <v>1.25</v>
@@ -31274,10 +31278,10 @@
         <v>3.75</v>
       </c>
       <c r="Q222" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R222" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S222" t="n">
         <v>3</v>
@@ -31298,10 +31302,10 @@
         <v>2.1</v>
       </c>
       <c r="Y222" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z222" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA222" t="n">
         <v>9</v>
@@ -31316,7 +31320,7 @@
         <v>23</v>
       </c>
       <c r="AE222" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF222" t="n">
         <v>6.5</v>
@@ -31337,7 +31341,7 @@
         <v>17</v>
       </c>
       <c r="AL222" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM222" t="n">
         <v>34</v>
@@ -31406,25 +31410,25 @@
         <v>1.03</v>
       </c>
       <c r="N223" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O223" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P223" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q223" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R223" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S223" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T223" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U223" t="n">
         <v>1.29</v>
@@ -31490,10 +31494,10 @@
         <v>41</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR223" t="inlineStr"/>
       <c r="AS223" t="inlineStr"/>
@@ -31971,10 +31975,10 @@
         <v>4.75</v>
       </c>
       <c r="M227" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N227" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O227" t="n">
         <v>1.25</v>
@@ -31983,16 +31987,16 @@
         <v>3.75</v>
       </c>
       <c r="Q227" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R227" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S227" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T227" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U227" t="n">
         <v>1.36</v>
@@ -32094,22 +32098,22 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H228" t="n">
         <v>3.4</v>
       </c>
       <c r="I228" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J228" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K228" t="n">
         <v>2.1</v>
       </c>
       <c r="L228" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M228" t="n">
         <v>1.06</v>
@@ -32148,16 +32152,16 @@
         <v>1.95</v>
       </c>
       <c r="Y228" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z228" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA228" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB228" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC228" t="n">
         <v>19</v>
@@ -32181,7 +32185,7 @@
         <v>251</v>
       </c>
       <c r="AJ228" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK228" t="n">
         <v>15</v>
@@ -32190,10 +32194,10 @@
         <v>11</v>
       </c>
       <c r="AM228" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN228" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO228" t="n">
         <v>34</v>
@@ -32896,7 +32900,7 @@
         <v>19</v>
       </c>
       <c r="AL233" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM233" t="n">
         <v>50</v>
@@ -32905,7 +32909,7 @@
         <v>32</v>
       </c>
       <c r="AO233" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP233" t="inlineStr"/>
       <c r="AQ233" t="inlineStr"/>
@@ -32944,22 +32948,22 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="H234" t="n">
         <v>3.4</v>
       </c>
       <c r="I234" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="J234" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="K234" t="n">
         <v>2.18</v>
       </c>
       <c r="L234" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="M234" t="n">
         <v>1.05</v>
@@ -32968,19 +32972,19 @@
         <v>8</v>
       </c>
       <c r="O234" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P234" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q234" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R234" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S234" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="T234" t="n">
         <v>1.42</v>
@@ -32989,28 +32993,28 @@
         <v>1.36</v>
       </c>
       <c r="V234" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="W234" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X234" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y234" t="n">
         <v>9.5</v>
       </c>
       <c r="Z234" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA234" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB234" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC234" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD234" t="n">
         <v>23</v>
@@ -33022,31 +33026,31 @@
         <v>6.8</v>
       </c>
       <c r="AG234" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH234" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI234" t="n">
         <v>300</v>
       </c>
       <c r="AJ234" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK234" t="n">
         <v>16</v>
       </c>
       <c r="AL234" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM234" t="n">
         <v>35</v>
       </c>
       <c r="AN234" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO234" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP234" t="inlineStr"/>
       <c r="AQ234" t="inlineStr"/>
@@ -33094,7 +33098,7 @@
         <v>1.85</v>
       </c>
       <c r="J235" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K235" t="n">
         <v>2.1</v>
@@ -33172,10 +33176,10 @@
         <v>700</v>
       </c>
       <c r="AJ235" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AK235" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AL235" t="n">
         <v>8.5</v>
@@ -33187,7 +33191,7 @@
         <v>15.5</v>
       </c>
       <c r="AO235" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP235" t="inlineStr"/>
       <c r="AQ235" t="inlineStr"/>
@@ -33262,7 +33266,7 @@
         <v>1.5</v>
       </c>
       <c r="S236" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="T236" t="n">
         <v>1.17</v>
@@ -33286,7 +33290,7 @@
         <v>11.5</v>
       </c>
       <c r="AA236" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB236" t="n">
         <v>29</v>
@@ -33790,22 +33794,22 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H240" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I240" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J240" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="K240" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L240" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="M240" t="n">
         <v>1.08</v>
@@ -33823,7 +33827,7 @@
         <v>2.02</v>
       </c>
       <c r="R240" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S240" t="n">
         <v>3.35</v>
@@ -33835,31 +33839,31 @@
         <v>1.38</v>
       </c>
       <c r="V240" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="W240" t="n">
         <v>1.75</v>
       </c>
       <c r="X240" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Y240" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Z240" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA240" t="n">
         <v>8.5</v>
       </c>
       <c r="AB240" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC240" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD240" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE240" t="n">
         <v>6.5</v>
@@ -33868,7 +33872,7 @@
         <v>5.8</v>
       </c>
       <c r="AG240" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH240" t="n">
         <v>65</v>
@@ -33877,22 +33881,22 @@
         <v>500</v>
       </c>
       <c r="AJ240" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK240" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL240" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AM240" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN240" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO240" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP240" t="inlineStr"/>
       <c r="AQ240" t="inlineStr"/>
@@ -34072,105 +34076,105 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="H242" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I242" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="J242" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K242" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L242" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P242" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="Q242" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R242" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="S242" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="T242" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="U242" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="V242" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="W242" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="X242" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y242" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="Z242" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AA242" t="n">
         <v>9.5</v>
       </c>
       <c r="AB242" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC242" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD242" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE242" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AF242" t="n">
         <v>6.1</v>
       </c>
       <c r="AG242" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH242" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI242" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ242" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AK242" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL242" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM242" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN242" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO242" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP242" t="inlineStr"/>
       <c r="AQ242" t="inlineStr"/>
@@ -34352,7 +34356,7 @@
         <v>3.05</v>
       </c>
       <c r="I244" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J244" t="n">
         <v>3.6</v>
@@ -34364,7 +34368,7 @@
         <v>3.25</v>
       </c>
       <c r="M244" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N244" t="n">
         <v>5.7</v>
@@ -34412,7 +34416,7 @@
         <v>32</v>
       </c>
       <c r="AC244" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD244" t="n">
         <v>50</v>
@@ -34424,7 +34428,7 @@
         <v>6.1</v>
       </c>
       <c r="AG244" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH244" t="n">
         <v>120</v>
@@ -34442,7 +34446,7 @@
         <v>10.25</v>
       </c>
       <c r="AM244" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN244" t="n">
         <v>25</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-15.xlsx
@@ -1711,7 +1711,7 @@
         <v>2.63</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
@@ -1723,24 +1723,24 @@
         <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T9" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
         <v>1.4</v>
@@ -1773,7 +1773,7 @@
         <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH9" t="n">
         <v>6.5</v>
@@ -1785,7 +1785,7 @@
         <v>51</v>
       </c>
       <c r="AK9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL9" t="n">
         <v>11</v>
@@ -1803,7 +1803,7 @@
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -2983,13 +2983,13 @@
         <v>1.85</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
         <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K18" t="n">
         <v>2.05</v>
@@ -3407,16 +3407,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
         <v>5.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K21" t="n">
         <v>3</v>
@@ -3431,18 +3431,18 @@
         <v>26</v>
       </c>
       <c r="O21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="U21" t="n">
         <v>1.73</v>
@@ -3457,10 +3457,10 @@
         <v>4.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA21" t="n">
         <v>34</v>
@@ -3484,7 +3484,7 @@
         <v>29</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>17</v>
@@ -3493,25 +3493,25 @@
         <v>41</v>
       </c>
       <c r="AK21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL21" t="n">
         <v>13</v>
       </c>
       <c r="AM21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN21" t="n">
         <v>9.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
         <v>10</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3572,18 +3572,18 @@
         <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U22" t="n">
         <v>3.25</v>
@@ -4122,22 +4122,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K26" t="n">
         <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -4154,10 +4154,10 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U26" t="n">
         <v>3.5</v>
@@ -4166,16 +4166,16 @@
         <v>1.3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA26" t="n">
         <v>7</v>
@@ -4184,22 +4184,22 @@
         <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD26" t="n">
         <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -4211,7 +4211,7 @@
         <v>301</v>
       </c>
       <c r="AL26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM26" t="n">
         <v>19</v>
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
         <v>1.7</v>
@@ -4317,40 +4317,40 @@
         <v>2.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD27" t="n">
         <v>51</v>
       </c>
       <c r="AE27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF27" t="n">
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK27" t="n">
         <v>501</v>
@@ -4368,16 +4368,16 @@
         <v>12</v>
       </c>
       <c r="AP27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ27" t="n">
         <v>34</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="28">
@@ -4412,22 +4412,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4448,16 +4448,16 @@
         <v>2.05</v>
       </c>
       <c r="S28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V28" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W28" t="n">
         <v>1.44</v>
@@ -4466,22 +4466,22 @@
         <v>2.63</v>
       </c>
       <c r="Y28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC28" t="n">
         <v>8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -4490,25 +4490,25 @@
         <v>34</v>
       </c>
       <c r="AG28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="n">
         <v>67</v>
       </c>
       <c r="AK28" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
         <v>17</v>
@@ -4523,10 +4523,10 @@
         <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="29">
@@ -4561,52 +4561,52 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L29" t="n">
         <v>4.5</v>
       </c>
-      <c r="J29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5</v>
-      </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P29" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S29" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="T29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V29" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W29" t="n">
         <v>1.62</v>
@@ -4615,31 +4615,31 @@
         <v>2.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
@@ -4654,16 +4654,16 @@
         <v>501</v>
       </c>
       <c r="AL29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP29" t="n">
         <v>41</v>
@@ -4672,10 +4672,10 @@
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="30">
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K30" t="n">
         <v>1.91</v>
@@ -4728,16 +4728,16 @@
         <v>6.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P30" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q30" t="n">
         <v>2.1</v>
@@ -4746,16 +4746,16 @@
         <v>1.78</v>
       </c>
       <c r="S30" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="T30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W30" t="n">
         <v>1.62</v>
@@ -4776,10 +4776,10 @@
         <v>6.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>19</v>
@@ -4788,28 +4788,28 @@
         <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="n">
         <v>501</v>
       </c>
       <c r="AL30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
         <v>67</v>
@@ -4821,10 +4821,10 @@
         <v>67</v>
       </c>
       <c r="AR30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="31">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>1.95</v>
@@ -4907,10 +4907,10 @@
         <v>1.17</v>
       </c>
       <c r="W31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X31" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y31" t="n">
         <v>2.2</v>
@@ -4958,7 +4958,7 @@
         <v>7.5</v>
       </c>
       <c r="AN31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO31" t="n">
         <v>15</v>
@@ -5008,13 +5008,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J32" t="n">
         <v>2.63</v>
@@ -5056,10 +5056,10 @@
         <v>1.13</v>
       </c>
       <c r="W32" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y32" t="n">
         <v>2.5</v>
@@ -5068,7 +5068,7 @@
         <v>1.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB32" t="n">
         <v>7</v>
@@ -5101,7 +5101,7 @@
         <v>101</v>
       </c>
       <c r="AL32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM32" t="n">
         <v>23</v>
@@ -5153,28 +5153,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>2.75</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K33" t="n">
         <v>1.73</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O33" t="n">
         <v>1.83</v>
@@ -5203,22 +5203,22 @@
         <v>1.98</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA33" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
       </c>
       <c r="AD33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="n">
         <v>29</v>
@@ -5227,16 +5227,16 @@
         <v>51</v>
       </c>
       <c r="AG33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AH33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK33" t="n">
         <v>101</v>
@@ -5245,19 +5245,19 @@
         <v>7</v>
       </c>
       <c r="AM33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5294,13 +5294,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>2.9</v>
       </c>
       <c r="I34" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J34" t="n">
         <v>2.88</v>
@@ -5312,10 +5312,10 @@
         <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.67</v>
@@ -5338,10 +5338,10 @@
         <v>1.1</v>
       </c>
       <c r="W34" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y34" t="n">
         <v>2.63</v>
@@ -5353,28 +5353,28 @@
         <v>4.75</v>
       </c>
       <c r="AB34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC34" t="n">
         <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE34" t="n">
         <v>23</v>
       </c>
       <c r="AF34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG34" t="n">
         <v>5</v>
       </c>
       <c r="AH34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ34" t="n">
         <v>101</v>
@@ -5386,7 +5386,7 @@
         <v>8</v>
       </c>
       <c r="AM34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN34" t="n">
         <v>17</v>
@@ -5395,7 +5395,7 @@
         <v>51</v>
       </c>
       <c r="AP34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ34" t="n">
         <v>67</v>
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H35" t="n">
         <v>2.6</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
         <v>1.8</v>
@@ -5479,16 +5479,16 @@
         <v>1.1</v>
       </c>
       <c r="W35" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X35" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA35" t="n">
         <v>5.5</v>
@@ -5500,7 +5500,7 @@
         <v>12</v>
       </c>
       <c r="AD35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE35" t="n">
         <v>29</v>
@@ -5518,7 +5518,7 @@
         <v>21</v>
       </c>
       <c r="AJ35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="n">
         <v>101</v>
@@ -5576,28 +5576,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I36" t="n">
         <v>2.63</v>
       </c>
-      <c r="I36" t="n">
-        <v>2.5</v>
-      </c>
       <c r="J36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K36" t="n">
         <v>1.73</v>
       </c>
       <c r="L36" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O36" t="n">
         <v>1.83</v>
@@ -5632,10 +5632,10 @@
         <v>1.44</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
         <v>15</v>
@@ -5668,13 +5668,13 @@
         <v>5</v>
       </c>
       <c r="AM36" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AN36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP36" t="n">
         <v>34</v>
@@ -5735,10 +5735,10 @@
         <v>3.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O37" t="n">
         <v>1.73</v>
@@ -5749,22 +5749,22 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V37" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W37" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X37" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y37" t="n">
         <v>2.5</v>
@@ -5882,10 +5882,10 @@
         <v>6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P38" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
@@ -6700,48 +6700,48 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K44" t="n">
         <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V44" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W44" t="n">
         <v>1.36</v>
@@ -6750,10 +6750,10 @@
         <v>3</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA44" t="n">
         <v>10</v>
@@ -6768,19 +6768,19 @@
         <v>26</v>
       </c>
       <c r="AE44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF44" t="n">
         <v>26</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH44" t="n">
         <v>6.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ44" t="n">
         <v>41</v>
@@ -6789,10 +6789,10 @@
         <v>151</v>
       </c>
       <c r="AL44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN44" t="n">
         <v>10</v>
@@ -7155,24 +7155,24 @@
         <v>13</v>
       </c>
       <c r="O47" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P47" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T47" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U47" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W47" t="n">
         <v>1.33</v>
@@ -7272,54 +7272,54 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H48" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I48" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="J48" t="n">
         <v>4.75</v>
       </c>
       <c r="K48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L48" t="n">
         <v>2.25</v>
       </c>
-      <c r="L48" t="n">
-        <v>2.38</v>
-      </c>
       <c r="M48" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="T48" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V48" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W48" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X48" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y48" t="n">
         <v>1.73</v>
@@ -7328,40 +7328,40 @@
         <v>2</v>
       </c>
       <c r="AA48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB48" t="n">
         <v>23</v>
       </c>
       <c r="AC48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE48" t="n">
         <v>34</v>
       </c>
       <c r="AF48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI48" t="n">
         <v>15</v>
       </c>
       <c r="AJ48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK48" t="n">
         <v>201</v>
       </c>
       <c r="AL48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM48" t="n">
         <v>8.5</v>
@@ -7370,7 +7370,7 @@
         <v>8.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP48" t="n">
         <v>13</v>
@@ -7993,28 +7993,28 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="H53" t="n">
         <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="J53" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K53" t="n">
         <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M53" t="n">
         <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O53" t="n">
         <v>1.36</v>
@@ -8053,19 +8053,19 @@
         <v>1.8</v>
       </c>
       <c r="AA53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC53" t="n">
         <v>10</v>
       </c>
       <c r="AD53" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE53" t="n">
         <v>23</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>21</v>
       </c>
       <c r="AF53" t="n">
         <v>34</v>
@@ -8086,19 +8086,19 @@
         <v>351</v>
       </c>
       <c r="AL53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO53" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ53" t="n">
         <v>34</v>
@@ -8142,16 +8142,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="H54" t="n">
         <v>4.5</v>
       </c>
       <c r="I54" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="J54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K54" t="n">
         <v>2.3</v>
@@ -8160,10 +8160,10 @@
         <v>1.91</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.29</v>
@@ -8178,10 +8178,10 @@
         <v>2.7</v>
       </c>
       <c r="S54" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T54" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U54" t="n">
         <v>3.25</v>
@@ -8196,10 +8196,10 @@
         <v>2.75</v>
       </c>
       <c r="Y54" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA54" t="n">
         <v>19</v>
@@ -8208,43 +8208,43 @@
         <v>41</v>
       </c>
       <c r="AC54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD54" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AF54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG54" t="n">
         <v>9.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ54" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK54" t="n">
         <v>1250</v>
       </c>
       <c r="AL54" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM54" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AN54" t="n">
         <v>9</v>
       </c>
       <c r="AO54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP54" t="n">
         <v>13</v>
@@ -8291,22 +8291,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J55" t="n">
         <v>4.33</v>
       </c>
       <c r="K55" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L55" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
         <v>1.1</v>
@@ -8315,16 +8315,16 @@
         <v>7</v>
       </c>
       <c r="O55" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P55" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R55" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S55" t="n">
         <v>2.5</v>
@@ -8354,7 +8354,7 @@
         <v>8</v>
       </c>
       <c r="AB55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC55" t="n">
         <v>13</v>
@@ -8387,7 +8387,7 @@
         <v>6</v>
       </c>
       <c r="AM55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN55" t="n">
         <v>10</v>
@@ -8440,10 +8440,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H56" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I56" t="n">
         <v>6.25</v>
@@ -8455,13 +8455,13 @@
         <v>2.1</v>
       </c>
       <c r="L56" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
         <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O56" t="n">
         <v>1.36</v>
@@ -8470,28 +8470,28 @@
         <v>3</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R56" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="S56" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T56" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U56" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W56" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X56" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y56" t="n">
         <v>2.2</v>
@@ -8527,7 +8527,7 @@
         <v>21</v>
       </c>
       <c r="AJ56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK56" t="n">
         <v>1250</v>
@@ -8551,10 +8551,10 @@
         <v>51</v>
       </c>
       <c r="AR56" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="57">
@@ -8700,10 +8700,10 @@
         <v>41</v>
       </c>
       <c r="AR57" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="58">
@@ -10019,28 +10019,28 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H67" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J67" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K67" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M67" t="n">
         <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O67" t="n">
         <v>1.4</v>
@@ -10057,10 +10057,10 @@
         <v>1.62</v>
       </c>
       <c r="U67" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V67" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W67" t="n">
         <v>1.5</v>
@@ -10069,10 +10069,10 @@
         <v>2.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA67" t="n">
         <v>7</v>
@@ -10093,13 +10093,13 @@
         <v>34</v>
       </c>
       <c r="AG67" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH67" t="n">
         <v>6</v>
       </c>
       <c r="AI67" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ67" t="n">
         <v>51</v>
@@ -10108,16 +10108,16 @@
         <v>351</v>
       </c>
       <c r="AL67" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN67" t="n">
         <v>11</v>
       </c>
       <c r="AO67" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP67" t="n">
         <v>26</v>
@@ -10160,7 +10160,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H68" t="n">
         <v>6.25</v>
@@ -10175,7 +10175,7 @@
         <v>2.88</v>
       </c>
       <c r="L68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M68" t="n">
         <v>1.02</v>
@@ -10184,10 +10184,10 @@
         <v>19</v>
       </c>
       <c r="O68" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P68" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -10249,22 +10249,22 @@
         <v>351</v>
       </c>
       <c r="AL68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM68" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN68" t="n">
         <v>34</v>
       </c>
       <c r="AO68" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP68" t="n">
         <v>81</v>
       </c>
       <c r="AQ68" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR68" t="n">
         <v>1.8</v>
@@ -10326,7 +10326,7 @@
         <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -15250,22 +15250,22 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H104" t="n">
         <v>3.6</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J104" t="n">
         <v>2.5</v>
       </c>
       <c r="K104" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L104" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M104" t="n">
         <v>1.05</v>
@@ -15274,18 +15274,18 @@
         <v>11</v>
       </c>
       <c r="O104" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P104" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T104" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="U104" t="n">
         <v>3.25</v>
@@ -15309,13 +15309,13 @@
         <v>8</v>
       </c>
       <c r="AB104" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC104" t="n">
         <v>8.5</v>
       </c>
       <c r="AD104" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE104" t="n">
         <v>15</v>
@@ -15333,7 +15333,7 @@
         <v>15</v>
       </c>
       <c r="AJ104" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK104" t="n">
         <v>201</v>
@@ -15351,7 +15351,7 @@
         <v>41</v>
       </c>
       <c r="AP104" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ104" t="n">
         <v>34</v>
@@ -16241,22 +16241,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H111" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I111" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J111" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K111" t="n">
         <v>2.1</v>
       </c>
       <c r="L111" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M111" t="n">
         <v>1.07</v>
@@ -16318,10 +16318,10 @@
         <v>8.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ111" t="n">
         <v>51</v>
@@ -16333,16 +16333,16 @@
         <v>6.5</v>
       </c>
       <c r="AM111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN111" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AN111" t="n">
-        <v>9</v>
       </c>
       <c r="AO111" t="n">
         <v>15</v>
       </c>
       <c r="AP111" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ111" t="n">
         <v>29</v>
@@ -19915,19 +19915,19 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H137" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I137" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J137" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K137" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L137" t="n">
         <v>7.5</v>
@@ -19947,16 +19947,16 @@
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="T137" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="U137" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V137" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W137" t="n">
         <v>1.25</v>
@@ -19992,7 +19992,7 @@
         <v>17</v>
       </c>
       <c r="AH137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI137" t="n">
         <v>19</v>
@@ -20004,13 +20004,13 @@
         <v>201</v>
       </c>
       <c r="AL137" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM137" t="n">
         <v>41</v>
       </c>
       <c r="AN137" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO137" t="n">
         <v>101</v>
@@ -20022,10 +20022,10 @@
         <v>51</v>
       </c>
       <c r="AR137" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="138">
@@ -20078,16 +20078,16 @@
         <v>8</v>
       </c>
       <c r="M138" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N138" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O138" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P138" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
@@ -20208,7 +20208,7 @@
         <v>3</v>
       </c>
       <c r="H139" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I139" t="n">
         <v>2.3</v>
@@ -20217,51 +20217,51 @@
         <v>3.75</v>
       </c>
       <c r="K139" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L139" t="n">
         <v>3.1</v>
       </c>
       <c r="M139" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N139" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O139" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P139" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
       <c r="S139" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T139" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="U139" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V139" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W139" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X139" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z139" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z139" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AA139" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB139" t="n">
         <v>15</v>
@@ -20276,25 +20276,25 @@
         <v>26</v>
       </c>
       <c r="AF139" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG139" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH139" t="n">
         <v>6.5</v>
       </c>
       <c r="AI139" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ139" t="n">
         <v>51</v>
       </c>
       <c r="AK139" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL139" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM139" t="n">
         <v>11</v>
@@ -20306,10 +20306,10 @@
         <v>21</v>
       </c>
       <c r="AP139" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ139" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR139" t="inlineStr"/>
       <c r="AS139" t="inlineStr"/>
@@ -20346,19 +20346,19 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H140" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="I140" t="n">
         <v>4.1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="K140" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="L140" t="n">
         <v>4.25</v>
@@ -20366,74 +20366,74 @@
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P140" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T140" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="U140" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="V140" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Z140" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="AA140" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB140" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AC140" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD140" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE140" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF140" t="n">
         <v>21</v>
       </c>
       <c r="AG140" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH140" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AI140" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ140" t="n">
         <v>50</v>
       </c>
       <c r="AK140" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL140" t="n">
         <v>15</v>
       </c>
       <c r="AM140" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN140" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO140" t="n">
         <v>65</v>
@@ -20442,7 +20442,7 @@
         <v>35</v>
       </c>
       <c r="AQ140" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR140" t="inlineStr"/>
       <c r="AS140" t="inlineStr"/>
@@ -20765,10 +20765,10 @@
         <v>1.95</v>
       </c>
       <c r="K143" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L143" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M143" t="n">
         <v>1.08</v>
@@ -20783,16 +20783,16 @@
         <v>2.5</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R143" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S143" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T143" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U143" t="n">
         <v>5</v>
@@ -20807,10 +20807,10 @@
         <v>2.38</v>
       </c>
       <c r="Y143" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z143" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA143" t="n">
         <v>4.33</v>
@@ -20822,7 +20822,7 @@
         <v>11</v>
       </c>
       <c r="AD143" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE143" t="n">
         <v>17</v>
@@ -20898,7 +20898,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H144" t="n">
         <v>4.33</v>
@@ -20910,10 +20910,10 @@
         <v>1.8</v>
       </c>
       <c r="K144" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M144" t="n">
         <v>1.05</v>
@@ -20957,13 +20957,13 @@
         <v>5.5</v>
       </c>
       <c r="AB144" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AC144" t="n">
         <v>10</v>
       </c>
       <c r="AD144" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE144" t="n">
         <v>13</v>
@@ -20972,7 +20972,7 @@
         <v>41</v>
       </c>
       <c r="AG144" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH144" t="n">
         <v>9.5</v>
@@ -20981,7 +20981,7 @@
         <v>29</v>
       </c>
       <c r="AJ144" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK144" t="n">
         <v>101</v>
@@ -21039,28 +21039,28 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H145" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I145" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="J145" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K145" t="n">
         <v>1.95</v>
       </c>
       <c r="L145" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M145" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N145" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O145" t="n">
         <v>1.44</v>
@@ -21069,10 +21069,10 @@
         <v>2.63</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R145" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S145" t="n">
         <v>2.4</v>
@@ -21081,34 +21081,34 @@
         <v>1.53</v>
       </c>
       <c r="U145" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V145" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W145" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z145" t="n">
         <v>1.57</v>
       </c>
-      <c r="X145" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z145" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AA145" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB145" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC145" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD145" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE145" t="n">
         <v>41</v>
@@ -21117,7 +21117,7 @@
         <v>51</v>
       </c>
       <c r="AG145" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH145" t="n">
         <v>6.5</v>
@@ -21135,13 +21135,13 @@
         <v>5.5</v>
       </c>
       <c r="AM145" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN145" t="n">
         <v>9.5</v>
       </c>
       <c r="AO145" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP145" t="n">
         <v>19</v>
@@ -21329,16 +21329,16 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H147" t="n">
         <v>2.7</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J147" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K147" t="n">
         <v>1.95</v>
@@ -21353,28 +21353,28 @@
         <v>6.5</v>
       </c>
       <c r="O147" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P147" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T147" t="n">
         <v>1.5</v>
       </c>
-      <c r="P147" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R147" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S147" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T147" t="n">
-        <v>1.48</v>
-      </c>
       <c r="U147" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V147" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W147" t="n">
         <v>1.53</v>
@@ -21389,7 +21389,7 @@
         <v>1.73</v>
       </c>
       <c r="AA147" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB147" t="n">
         <v>12</v>
@@ -21401,13 +21401,13 @@
         <v>26</v>
       </c>
       <c r="AE147" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF147" t="n">
         <v>41</v>
       </c>
       <c r="AG147" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH147" t="n">
         <v>5.5</v>
@@ -21425,13 +21425,13 @@
         <v>8</v>
       </c>
       <c r="AM147" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN147" t="n">
         <v>12</v>
       </c>
       <c r="AO147" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP147" t="n">
         <v>29</v>
@@ -21756,28 +21756,28 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H150" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I150" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J150" t="n">
         <v>3</v>
       </c>
       <c r="K150" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L150" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M150" t="n">
         <v>1.04</v>
       </c>
       <c r="N150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O150" t="n">
         <v>1.22</v>
@@ -21788,10 +21788,10 @@
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T150" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U150" t="n">
         <v>2.75</v>
@@ -21800,10 +21800,10 @@
         <v>1.4</v>
       </c>
       <c r="W150" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X150" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y150" t="n">
         <v>1.62</v>
@@ -21812,7 +21812,7 @@
         <v>2.2</v>
       </c>
       <c r="AA150" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB150" t="n">
         <v>13</v>
@@ -21827,10 +21827,10 @@
         <v>19</v>
       </c>
       <c r="AF150" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH150" t="n">
         <v>6.5</v>
@@ -22748,19 +22748,19 @@
         <v>1.33</v>
       </c>
       <c r="H157" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I157" t="n">
         <v>8.5</v>
       </c>
       <c r="J157" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K157" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L157" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M157" t="n">
         <v>1.03</v>
@@ -22769,24 +22769,24 @@
         <v>15</v>
       </c>
       <c r="O157" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P157" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="T157" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="U157" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V157" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W157" t="n">
         <v>1.3</v>
@@ -22795,10 +22795,10 @@
         <v>3.4</v>
       </c>
       <c r="Y157" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z157" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA157" t="n">
         <v>7.5</v>
@@ -22834,13 +22834,13 @@
         <v>351</v>
       </c>
       <c r="AL157" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM157" t="n">
         <v>41</v>
       </c>
       <c r="AN157" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO157" t="n">
         <v>101</v>
@@ -22852,10 +22852,10 @@
         <v>51</v>
       </c>
       <c r="AR157" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="158">
@@ -29765,13 +29765,13 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H207" t="n">
         <v>3</v>
       </c>
       <c r="I207" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J207" t="n">
         <v>3.1</v>
@@ -29780,7 +29780,7 @@
         <v>2.1</v>
       </c>
       <c r="L207" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M207" t="n">
         <v>1.06</v>
@@ -29789,24 +29789,24 @@
         <v>10</v>
       </c>
       <c r="O207" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P207" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q207" t="inlineStr"/>
       <c r="R207" t="inlineStr"/>
       <c r="S207" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T207" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U207" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V207" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W207" t="n">
         <v>1.4</v>
@@ -29821,19 +29821,19 @@
         <v>2</v>
       </c>
       <c r="AA207" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB207" t="n">
         <v>12</v>
       </c>
       <c r="AC207" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD207" t="n">
         <v>23</v>
       </c>
       <c r="AE207" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF207" t="n">
         <v>29</v>
@@ -29860,10 +29860,10 @@
         <v>15</v>
       </c>
       <c r="AN207" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO207" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP207" t="n">
         <v>23</v>
@@ -30478,28 +30478,28 @@
         </is>
       </c>
       <c r="G216" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H216" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J216" t="n">
         <v>6</v>
       </c>
-      <c r="H216" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J216" t="n">
-        <v>6.5</v>
-      </c>
       <c r="K216" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L216" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="M216" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N216" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O216" t="n">
         <v>1.4</v>
@@ -30510,16 +30510,16 @@
       <c r="Q216" t="inlineStr"/>
       <c r="R216" t="inlineStr"/>
       <c r="S216" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="T216" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U216" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V216" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W216" t="n">
         <v>1.5</v>
@@ -30528,13 +30528,13 @@
         <v>2.5</v>
       </c>
       <c r="Y216" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z216" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA216" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB216" t="n">
         <v>29</v>
@@ -30552,7 +30552,7 @@
         <v>51</v>
       </c>
       <c r="AG216" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH216" t="n">
         <v>7</v>
@@ -30576,10 +30576,10 @@
         <v>9</v>
       </c>
       <c r="AO216" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP216" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ216" t="n">
         <v>34</v>
@@ -30619,28 +30619,28 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H217" t="n">
         <v>3.2</v>
       </c>
       <c r="I217" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="J217" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K217" t="n">
         <v>2</v>
       </c>
       <c r="L217" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M217" t="n">
         <v>1.07</v>
       </c>
       <c r="N217" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O217" t="n">
         <v>1.36</v>
@@ -30675,25 +30675,25 @@
         <v>1.8</v>
       </c>
       <c r="AA217" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB217" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC217" t="n">
         <v>10</v>
       </c>
       <c r="AD217" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE217" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF217" t="n">
         <v>34</v>
       </c>
       <c r="AG217" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH217" t="n">
         <v>6.5</v>
@@ -30720,10 +30720,10 @@
         <v>29</v>
       </c>
       <c r="AP217" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ217" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR217" t="inlineStr"/>
       <c r="AS217" t="inlineStr"/>
@@ -31046,13 +31046,13 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H220" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I220" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J220" t="n">
         <v>2.38</v>
@@ -31078,10 +31078,10 @@
       <c r="Q220" t="inlineStr"/>
       <c r="R220" t="inlineStr"/>
       <c r="S220" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T220" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U220" t="n">
         <v>3.4</v>
@@ -31096,10 +31096,10 @@
         <v>2.75</v>
       </c>
       <c r="Y220" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z220" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA220" t="n">
         <v>7</v>
@@ -31117,10 +31117,10 @@
         <v>15</v>
       </c>
       <c r="AF220" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG220" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH220" t="n">
         <v>6.5</v>
@@ -31132,13 +31132,13 @@
         <v>51</v>
       </c>
       <c r="AK220" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL220" t="n">
         <v>13</v>
       </c>
       <c r="AM220" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN220" t="n">
         <v>17</v>
@@ -31168,7 +31168,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:40</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -31187,10 +31187,10 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H221" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I221" t="n">
         <v>3.2</v>
@@ -31205,30 +31205,30 @@
         <v>3.6</v>
       </c>
       <c r="M221" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N221" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O221" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P221" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q221" t="inlineStr"/>
       <c r="R221" t="inlineStr"/>
       <c r="S221" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="T221" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="U221" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V221" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="W221" t="n">
         <v>1.36</v>
@@ -31237,16 +31237,16 @@
         <v>3</v>
       </c>
       <c r="Y221" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z221" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA221" t="n">
         <v>9</v>
       </c>
       <c r="AB221" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC221" t="n">
         <v>9</v>
@@ -31258,16 +31258,16 @@
         <v>17</v>
       </c>
       <c r="AF221" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG221" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH221" t="n">
         <v>6.5</v>
       </c>
       <c r="AI221" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ221" t="n">
         <v>41</v>
@@ -31282,7 +31282,7 @@
         <v>17</v>
       </c>
       <c r="AN221" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO221" t="n">
         <v>34</v>
@@ -31328,22 +31328,22 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="H222" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I222" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J222" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K222" t="n">
         <v>2.5</v>
       </c>
       <c r="L222" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M222" t="n">
         <v>1.03</v>
@@ -31352,10 +31352,10 @@
         <v>17</v>
       </c>
       <c r="O222" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P222" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q222" t="inlineStr"/>
       <c r="R222" t="inlineStr"/>
@@ -31378,22 +31378,22 @@
         <v>3.5</v>
       </c>
       <c r="Y222" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Z222" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AA222" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB222" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC222" t="n">
         <v>8.5</v>
       </c>
       <c r="AD222" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE222" t="n">
         <v>11</v>
@@ -31405,7 +31405,7 @@
         <v>17</v>
       </c>
       <c r="AH222" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI222" t="n">
         <v>15</v>
@@ -31423,22 +31423,22 @@
         <v>34</v>
       </c>
       <c r="AN222" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO222" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP222" t="n">
         <v>41</v>
       </c>
       <c r="AQ222" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR222" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS222" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="223">
@@ -31454,7 +31454,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:40</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -31473,28 +31473,28 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H223" t="n">
+        <v>4</v>
+      </c>
+      <c r="I223" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I223" t="n">
-        <v>4.2</v>
       </c>
       <c r="J223" t="n">
         <v>2.25</v>
       </c>
       <c r="K223" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L223" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M223" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N223" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O223" t="n">
         <v>1.22</v>
@@ -31505,16 +31505,16 @@
       <c r="Q223" t="inlineStr"/>
       <c r="R223" t="inlineStr"/>
       <c r="S223" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T223" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="U223" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V223" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W223" t="n">
         <v>1.33</v>
@@ -31547,28 +31547,28 @@
         <v>23</v>
       </c>
       <c r="AG223" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI223" t="n">
         <v>15</v>
       </c>
-      <c r="AH223" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI223" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ223" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK223" t="n">
         <v>201</v>
       </c>
       <c r="AL223" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM223" t="n">
         <v>23</v>
       </c>
       <c r="AN223" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO223" t="n">
         <v>51</v>
@@ -31614,111 +31614,111 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H224" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I224" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="J224" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K224" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L224" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M224" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N224" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O224" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P224" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q224" t="inlineStr"/>
       <c r="R224" t="inlineStr"/>
       <c r="S224" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T224" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="U224" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V224" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="W224" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X224" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y224" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Z224" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA224" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG224" t="n">
         <v>10</v>
-      </c>
-      <c r="AB224" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC224" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD224" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE224" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF224" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG224" t="n">
-        <v>12</v>
       </c>
       <c r="AH224" t="n">
         <v>6.5</v>
       </c>
       <c r="AI224" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ224" t="n">
         <v>41</v>
       </c>
       <c r="AK224" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL224" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM224" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN224" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO224" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP224" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ224" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR224" t="inlineStr"/>
       <c r="AS224" t="inlineStr"/>
@@ -31755,54 +31755,54 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H225" t="n">
         <v>3.6</v>
       </c>
       <c r="I225" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J225" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K225" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L225" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M225" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N225" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O225" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P225" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q225" t="inlineStr"/>
       <c r="R225" t="inlineStr"/>
       <c r="S225" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T225" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="U225" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V225" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W225" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X225" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y225" t="n">
         <v>1.62</v>
@@ -31817,10 +31817,10 @@
         <v>12</v>
       </c>
       <c r="AC225" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD225" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE225" t="n">
         <v>17</v>
@@ -31829,13 +31829,13 @@
         <v>23</v>
       </c>
       <c r="AG225" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI225" t="n">
         <v>13</v>
-      </c>
-      <c r="AH225" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI225" t="n">
-        <v>12</v>
       </c>
       <c r="AJ225" t="n">
         <v>41</v>
@@ -31844,22 +31844,22 @@
         <v>151</v>
       </c>
       <c r="AL225" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM225" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN225" t="n">
         <v>11</v>
       </c>
       <c r="AO225" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP225" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ225" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR225" t="inlineStr"/>
       <c r="AS225" t="inlineStr"/>
@@ -31896,48 +31896,48 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H226" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I226" t="n">
         <v>3.6</v>
       </c>
-      <c r="I226" t="n">
-        <v>3.4</v>
-      </c>
       <c r="J226" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K226" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L226" t="n">
         <v>4</v>
       </c>
       <c r="M226" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N226" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O226" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P226" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q226" t="inlineStr"/>
       <c r="R226" t="inlineStr"/>
       <c r="S226" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T226" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U226" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V226" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W226" t="n">
         <v>1.36</v>
@@ -31946,31 +31946,31 @@
         <v>3</v>
       </c>
       <c r="Y226" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z226" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA226" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB226" t="n">
         <v>10</v>
       </c>
       <c r="AC226" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD226" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE226" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF226" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG226" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH226" t="n">
         <v>7</v>
@@ -31982,13 +31982,13 @@
         <v>41</v>
       </c>
       <c r="AK226" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL226" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM226" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN226" t="n">
         <v>12</v>
@@ -32040,13 +32040,13 @@
         <v>2.25</v>
       </c>
       <c r="H227" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I227" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J227" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K227" t="n">
         <v>2.1</v>
@@ -32061,24 +32061,24 @@
         <v>11</v>
       </c>
       <c r="O227" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P227" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q227" t="inlineStr"/>
       <c r="R227" t="inlineStr"/>
       <c r="S227" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T227" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U227" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V227" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W227" t="n">
         <v>1.4</v>
@@ -32099,7 +32099,7 @@
         <v>11</v>
       </c>
       <c r="AC227" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD227" t="n">
         <v>21</v>
@@ -32252,7 +32252,7 @@
         <v>23</v>
       </c>
       <c r="AG228" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH228" t="n">
         <v>7</v>
@@ -32279,7 +32279,7 @@
         <v>29</v>
       </c>
       <c r="AP228" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ228" t="n">
         <v>29</v>
@@ -32319,72 +32319,72 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H229" t="n">
         <v>3.6</v>
       </c>
       <c r="I229" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J229" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K229" t="n">
         <v>2.3</v>
       </c>
       <c r="L229" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M229" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N229" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O229" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P229" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q229" t="inlineStr"/>
       <c r="R229" t="inlineStr"/>
       <c r="S229" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="T229" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X229" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z229" t="n">
         <v>2.2</v>
       </c>
-      <c r="U229" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V229" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W229" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X229" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y229" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z229" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AA229" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB229" t="n">
         <v>11</v>
       </c>
       <c r="AC229" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD229" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE229" t="n">
         <v>15</v>
@@ -32393,7 +32393,7 @@
         <v>21</v>
       </c>
       <c r="AG229" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH229" t="n">
         <v>7</v>
@@ -32405,13 +32405,13 @@
         <v>41</v>
       </c>
       <c r="AK229" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL229" t="n">
         <v>13</v>
       </c>
       <c r="AM229" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN229" t="n">
         <v>12</v>
@@ -32420,7 +32420,7 @@
         <v>41</v>
       </c>
       <c r="AP229" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ229" t="n">
         <v>29</v>
@@ -32464,54 +32464,54 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="H230" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I230" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J230" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="K230" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L230" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="M230" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N230" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="O230" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P230" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="Q230" t="inlineStr"/>
       <c r="R230" t="inlineStr"/>
       <c r="S230" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="T230" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="U230" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="V230" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W230" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X230" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="Y230" t="n">
         <v>1.95</v>
@@ -32520,49 +32520,49 @@
         <v>1.75</v>
       </c>
       <c r="AA230" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB230" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AC230" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD230" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AE230" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF230" t="n">
         <v>32</v>
       </c>
       <c r="AG230" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AH230" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AI230" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ230" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK230" t="n">
         <v>900</v>
       </c>
       <c r="AL230" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM230" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN230" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO230" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP230" t="n">
         <v>40</v>
@@ -32605,22 +32605,22 @@
         </is>
       </c>
       <c r="G231" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H231" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J231" t="n">
         <v>5.2</v>
-      </c>
-      <c r="H231" t="n">
-        <v>4</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J231" t="n">
-        <v>5.4</v>
       </c>
       <c r="K231" t="n">
         <v>2.27</v>
       </c>
       <c r="L231" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="M231" t="n">
         <v>1.05</v>
@@ -32637,16 +32637,16 @@
       <c r="Q231" t="inlineStr"/>
       <c r="R231" t="inlineStr"/>
       <c r="S231" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T231" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U231" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="V231" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W231" t="n">
         <v>1.37</v>
@@ -32655,61 +32655,61 @@
         <v>2.87</v>
       </c>
       <c r="Y231" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="Z231" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AA231" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB231" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC231" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD231" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE231" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF231" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG231" t="n">
         <v>8</v>
       </c>
       <c r="AH231" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AI231" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ231" t="n">
         <v>80</v>
       </c>
       <c r="AK231" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL231" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AM231" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AN231" t="n">
         <v>8.25</v>
       </c>
       <c r="AO231" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AP231" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AQ231" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR231" t="inlineStr"/>
       <c r="AS231" t="inlineStr"/>
@@ -32746,51 +32746,51 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="H232" t="n">
         <v>3.45</v>
       </c>
       <c r="I232" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J232" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="K232" t="n">
         <v>2.15</v>
       </c>
       <c r="L232" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="M232" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N232" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O232" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P232" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q232" t="inlineStr"/>
       <c r="R232" t="inlineStr"/>
       <c r="S232" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T232" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="U232" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V232" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W232" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X232" t="n">
         <v>2.75</v>
@@ -32802,31 +32802,31 @@
         <v>1.98</v>
       </c>
       <c r="AA232" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AB232" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AC232" t="n">
         <v>8.5</v>
       </c>
       <c r="AD232" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE232" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF232" t="n">
         <v>26</v>
       </c>
       <c r="AG232" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AH232" t="n">
         <v>6.8</v>
       </c>
       <c r="AI232" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ232" t="n">
         <v>65</v>
@@ -32835,22 +32835,22 @@
         <v>500</v>
       </c>
       <c r="AL232" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AM232" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AN232" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO232" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP232" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ232" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR232" t="inlineStr"/>
       <c r="AS232" t="inlineStr"/>
@@ -32890,10 +32890,10 @@
         <v>2.15</v>
       </c>
       <c r="H233" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I233" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J233" t="n">
         <v>2.72</v>
@@ -32908,13 +32908,13 @@
         <v>1.05</v>
       </c>
       <c r="N233" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O233" t="n">
         <v>1.25</v>
       </c>
       <c r="P233" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q233" t="inlineStr"/>
       <c r="R233" t="inlineStr"/>
@@ -32928,7 +32928,7 @@
         <v>2.75</v>
       </c>
       <c r="V233" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W233" t="n">
         <v>1.36</v>
@@ -32937,16 +32937,16 @@
         <v>2.92</v>
       </c>
       <c r="Y233" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Z233" t="n">
         <v>2.18</v>
       </c>
       <c r="AA233" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB233" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC233" t="n">
         <v>8.75</v>
@@ -32961,10 +32961,10 @@
         <v>23</v>
       </c>
       <c r="AG233" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AH233" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI233" t="n">
         <v>12.5</v>
@@ -32973,10 +32973,10 @@
         <v>50</v>
       </c>
       <c r="AK233" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AL233" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AM233" t="n">
         <v>17</v>
@@ -32985,13 +32985,13 @@
         <v>10.75</v>
       </c>
       <c r="AO233" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP233" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ233" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR233" t="inlineStr"/>
       <c r="AS233" t="inlineStr"/>
@@ -33028,22 +33028,22 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H234" t="n">
         <v>3.4</v>
       </c>
       <c r="I234" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="J234" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="K234" t="n">
         <v>2.1</v>
       </c>
       <c r="L234" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="M234" t="n">
         <v>1.06</v>
@@ -33052,10 +33052,10 @@
         <v>7.1</v>
       </c>
       <c r="O234" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P234" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q234" t="inlineStr"/>
       <c r="R234" t="inlineStr"/>
@@ -33066,7 +33066,7 @@
         <v>1.75</v>
       </c>
       <c r="U234" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="V234" t="n">
         <v>1.29</v>
@@ -33078,16 +33078,16 @@
         <v>2.62</v>
       </c>
       <c r="Y234" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Z234" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="AA234" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB234" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC234" t="n">
         <v>12.5</v>
@@ -33096,7 +33096,7 @@
         <v>50</v>
       </c>
       <c r="AE234" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF234" t="n">
         <v>40</v>
@@ -33105,7 +33105,7 @@
         <v>7.1</v>
       </c>
       <c r="AH234" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI234" t="n">
         <v>15.5</v>
@@ -33114,7 +33114,7 @@
         <v>75</v>
       </c>
       <c r="AK234" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL234" t="n">
         <v>6.9</v>
@@ -33126,7 +33126,7 @@
         <v>8.5</v>
       </c>
       <c r="AO234" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP234" t="n">
         <v>16</v>
@@ -33169,111 +33169,111 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="H235" t="n">
         <v>3</v>
       </c>
       <c r="I235" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="J235" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K235" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="L235" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="M235" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N235" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O235" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P235" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="Q235" t="inlineStr"/>
       <c r="R235" t="inlineStr"/>
       <c r="S235" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="T235" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U235" t="n">
-        <v>4.35</v>
+        <v>4.65</v>
       </c>
       <c r="V235" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W235" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X235" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="Y235" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Z235" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AA235" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AB235" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AC235" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD235" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE235" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF235" t="n">
         <v>50</v>
       </c>
       <c r="AG235" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AH235" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AI235" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AJ235" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK235" t="n">
         <v>900</v>
       </c>
       <c r="AL235" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AM235" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AN235" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AO235" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AP235" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AQ235" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR235" t="inlineStr"/>
       <c r="AS235" t="inlineStr"/>
@@ -33310,48 +33310,48 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.37</v>
+        <v>2.18</v>
       </c>
       <c r="H236" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I236" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J236" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="K236" t="n">
         <v>2.02</v>
       </c>
       <c r="L236" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="M236" t="n">
         <v>1.08</v>
       </c>
       <c r="N236" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="O236" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P236" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Q236" t="inlineStr"/>
       <c r="R236" t="inlineStr"/>
       <c r="S236" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T236" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U236" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="V236" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W236" t="n">
         <v>1.47</v>
@@ -33366,28 +33366,28 @@
         <v>1.8</v>
       </c>
       <c r="AA236" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AB236" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AC236" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD236" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE236" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AF236" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG236" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AH236" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI236" t="n">
         <v>16.5</v>
@@ -33399,19 +33399,19 @@
         <v>800</v>
       </c>
       <c r="AL236" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AM236" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AN236" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AO236" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AP236" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AQ236" t="n">
         <v>40</v>
@@ -33451,22 +33451,22 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="H237" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I237" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="J237" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K237" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L237" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M237" t="n">
         <v>1.07</v>
@@ -33498,28 +33498,28 @@
         <v>1.45</v>
       </c>
       <c r="X237" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="Y237" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Z237" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AA237" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AB237" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC237" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD237" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE237" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF237" t="n">
         <v>30</v>
@@ -33528,28 +33528,28 @@
         <v>6.9</v>
       </c>
       <c r="AH237" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AI237" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM237" t="n">
         <v>14.5</v>
       </c>
-      <c r="AJ237" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK237" t="n">
-        <v>600</v>
-      </c>
-      <c r="AL237" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM237" t="n">
-        <v>15</v>
-      </c>
       <c r="AN237" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AO237" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP237" t="n">
         <v>26</v>
@@ -33613,75 +33613,75 @@
         <v>1.07</v>
       </c>
       <c r="N238" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O238" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P238" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q238" t="inlineStr"/>
       <c r="R238" t="inlineStr"/>
       <c r="S238" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T238" t="n">
         <v>1.7</v>
       </c>
       <c r="U238" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V238" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W238" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X238" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Y238" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Z238" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="AA238" t="n">
         <v>7.7</v>
       </c>
       <c r="AB238" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC238" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD238" t="n">
         <v>26</v>
       </c>
       <c r="AE238" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF238" t="n">
         <v>32</v>
       </c>
       <c r="AG238" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AH238" t="n">
         <v>6.2</v>
       </c>
       <c r="AI238" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ238" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK238" t="n">
         <v>600</v>
       </c>
       <c r="AL238" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AM238" t="n">
         <v>13</v>
@@ -33693,10 +33693,10 @@
         <v>30</v>
       </c>
       <c r="AP238" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ238" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR238" t="inlineStr"/>
       <c r="AS238" t="inlineStr"/>
@@ -33733,22 +33733,22 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H239" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I239" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J239" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="K239" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L239" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="M239" t="n">
         <v>1.08</v>
@@ -33757,24 +33757,24 @@
         <v>6.6</v>
       </c>
       <c r="O239" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P239" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q239" t="inlineStr"/>
       <c r="R239" t="inlineStr"/>
       <c r="S239" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T239" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U239" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="V239" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W239" t="n">
         <v>1.37</v>
@@ -33783,25 +33783,25 @@
         <v>2.85</v>
       </c>
       <c r="Y239" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Z239" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AA239" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB239" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AC239" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD239" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE239" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF239" t="n">
         <v>28</v>
@@ -33810,25 +33810,25 @@
         <v>6.6</v>
       </c>
       <c r="AH239" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AI239" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ239" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK239" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL239" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM239" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AN239" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AO239" t="n">
         <v>50</v>
@@ -33837,7 +33837,7 @@
         <v>32</v>
       </c>
       <c r="AQ239" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR239" t="inlineStr"/>
       <c r="AS239" t="inlineStr"/>
@@ -34015,107 +34015,107 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="H241" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I241" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="J241" t="n">
-        <v>2.85</v>
+        <v>2.52</v>
       </c>
       <c r="K241" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L241" t="n">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="P241" t="n">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="Q241" t="inlineStr"/>
       <c r="R241" t="inlineStr"/>
       <c r="S241" t="n">
-        <v>2.15</v>
+        <v>1.82</v>
       </c>
       <c r="T241" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="U241" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="V241" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="W241" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="X241" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="Y241" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Z241" t="n">
         <v>1.9</v>
       </c>
-      <c r="Z241" t="n">
-        <v>1.72</v>
-      </c>
       <c r="AA241" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB241" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AC241" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD241" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AE241" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AF241" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AG241" t="n">
-        <v>7.7</v>
+        <v>10.5</v>
       </c>
       <c r="AH241" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AI241" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ241" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AK241" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AL241" t="n">
-        <v>8</v>
+        <v>10.75</v>
       </c>
       <c r="AM241" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AN241" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO241" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AP241" t="n">
         <v>32</v>
       </c>
       <c r="AQ241" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR241" t="inlineStr"/>
       <c r="AS241" t="inlineStr"/>
@@ -34152,22 +34152,22 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="H242" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="I242" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J242" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K242" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L242" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr"/>
@@ -34175,30 +34175,30 @@
         <v>1.44</v>
       </c>
       <c r="P242" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q242" t="inlineStr"/>
       <c r="R242" t="inlineStr"/>
       <c r="S242" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="T242" t="n">
         <v>1.5</v>
       </c>
       <c r="U242" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="V242" t="n">
         <v>1.18</v>
       </c>
       <c r="W242" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X242" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Y242" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Z242" t="n">
         <v>1.75</v>
@@ -34207,49 +34207,49 @@
         <v>6.5</v>
       </c>
       <c r="AB242" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AC242" t="n">
         <v>9.75</v>
       </c>
       <c r="AD242" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE242" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF242" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG242" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AH242" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AI242" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ242" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK242" t="n">
         <v>800</v>
       </c>
       <c r="AL242" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AM242" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN242" t="n">
         <v>11</v>
       </c>
       <c r="AO242" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP242" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ242" t="n">
         <v>40</v>
